--- a/Dragonfall/gameData/shared/BuildingFunction.xlsx
+++ b/Dragonfall/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="580" windowWidth="36000" windowHeight="20560" tabRatio="883"/>
+    <workbookView xWindow="920" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -538,7 +538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="718">
+  <cellStyleXfs count="728">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -553,6 +553,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1286,7 +1296,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="718">
+  <cellStyles count="728">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1648,6 +1658,11 @@
     <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2002,6 +2017,11 @@
     <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2453,7 +2473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -12783,8 +12803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12823,16 +12843,16 @@
         <v>25</v>
       </c>
       <c r="C2" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" s="5">
         <v>44</v>
@@ -12846,16 +12866,16 @@
         <v>30</v>
       </c>
       <c r="C3" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G3" s="6">
         <v>48</v>
@@ -12869,16 +12889,16 @@
         <v>35</v>
       </c>
       <c r="C4" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6">
         <v>52</v>
@@ -12892,16 +12912,16 @@
         <v>40</v>
       </c>
       <c r="C5" s="6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="6">
         <v>56</v>
@@ -12915,16 +12935,16 @@
         <v>50</v>
       </c>
       <c r="C6" s="6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G6" s="6">
         <v>60</v>
@@ -12938,16 +12958,16 @@
         <v>60</v>
       </c>
       <c r="C7" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6">
         <v>64</v>
@@ -12961,16 +12981,16 @@
         <v>80</v>
       </c>
       <c r="C8" s="6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G8" s="6">
         <v>68</v>
@@ -12984,16 +13004,16 @@
         <v>130</v>
       </c>
       <c r="C9" s="6">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F9" s="6">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G9" s="6">
         <v>72</v>
@@ -13007,16 +13027,16 @@
         <v>270</v>
       </c>
       <c r="C10" s="6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E10" s="6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F10" s="6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G10" s="6">
         <v>76</v>
@@ -13030,16 +13050,16 @@
         <v>400</v>
       </c>
       <c r="C11" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G11" s="6">
         <v>80</v>
@@ -13053,16 +13073,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F12" s="6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G12" s="6">
         <v>84</v>
@@ -13076,16 +13096,16 @@
         <v>690</v>
       </c>
       <c r="C13" s="6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F13" s="6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G13" s="6">
         <v>88</v>
@@ -13099,16 +13119,16 @@
         <v>900</v>
       </c>
       <c r="C14" s="6">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F14" s="6">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6">
         <v>92</v>
@@ -13122,16 +13142,16 @@
         <v>1810</v>
       </c>
       <c r="C15" s="6">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E15" s="6">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F15" s="6">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G15" s="6">
         <v>96</v>
@@ -13145,16 +13165,16 @@
         <v>2820</v>
       </c>
       <c r="C16" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E16" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F16" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G16" s="6">
         <v>100</v>
@@ -13168,16 +13188,16 @@
         <v>3900</v>
       </c>
       <c r="C17" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E17" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F17" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G17" s="6">
         <v>104</v>
@@ -13191,16 +13211,16 @@
         <v>5690</v>
       </c>
       <c r="C18" s="6">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D18" s="6">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E18" s="6">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F18" s="6">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G18" s="6">
         <v>108</v>
@@ -13214,16 +13234,16 @@
         <v>7000</v>
       </c>
       <c r="C19" s="6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E19" s="6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F19" s="6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G19" s="6">
         <v>112</v>
@@ -13237,16 +13257,16 @@
         <v>8550</v>
       </c>
       <c r="C20" s="6">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E20" s="6">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F20" s="6">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G20" s="6">
         <v>116</v>
@@ -13260,16 +13280,16 @@
         <v>10030</v>
       </c>
       <c r="C21" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D21" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E21" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F21" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G21" s="6">
         <v>120</v>
@@ -13283,16 +13303,16 @@
         <v>13620</v>
       </c>
       <c r="C22" s="6">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D22" s="6">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E22" s="6">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F22" s="6">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G22" s="6">
         <v>124</v>
@@ -13306,16 +13326,16 @@
         <v>15610</v>
       </c>
       <c r="C23" s="6">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D23" s="6">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E23" s="6">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F23" s="6">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G23" s="6">
         <v>128</v>
@@ -13329,16 +13349,16 @@
         <v>18010</v>
       </c>
       <c r="C24" s="6">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D24" s="6">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E24" s="6">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F24" s="6">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G24" s="6">
         <v>132</v>
@@ -13352,16 +13372,16 @@
         <v>20270</v>
       </c>
       <c r="C25" s="6">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D25" s="6">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E25" s="6">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F25" s="6">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G25" s="6">
         <v>136</v>
@@ -13375,16 +13395,16 @@
         <v>27680</v>
       </c>
       <c r="C26" s="6">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D26" s="6">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E26" s="6">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F26" s="6">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G26" s="6">
         <v>140</v>
@@ -13398,16 +13418,16 @@
         <v>30900</v>
       </c>
       <c r="C27" s="6">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D27" s="6">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E27" s="6">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F27" s="6">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G27" s="6">
         <v>144</v>
@@ -13421,16 +13441,16 @@
         <v>34760</v>
       </c>
       <c r="C28" s="6">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D28" s="6">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E28" s="6">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F28" s="6">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G28" s="6">
         <v>148</v>
@@ -13444,16 +13464,16 @@
         <v>38410</v>
       </c>
       <c r="C29" s="6">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D29" s="6">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E29" s="6">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F29" s="6">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G29" s="6">
         <v>152</v>
@@ -13467,16 +13487,16 @@
         <v>54660</v>
       </c>
       <c r="C30" s="6">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D30" s="6">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E30" s="6">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F30" s="6">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G30" s="6">
         <v>156</v>
@@ -13490,16 +13510,16 @@
         <v>63090</v>
       </c>
       <c r="C31" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D31" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E31" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F31" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G31" s="6">
         <v>160</v>
@@ -13513,16 +13533,16 @@
         <v>72870</v>
       </c>
       <c r="C32" s="6">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D32" s="6">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E32" s="6">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F32" s="6">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G32" s="6">
         <v>164</v>
@@ -13536,16 +13556,16 @@
         <v>82670</v>
       </c>
       <c r="C33" s="6">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D33" s="6">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E33" s="6">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F33" s="6">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G33" s="6">
         <v>168</v>
@@ -13559,16 +13579,16 @@
         <v>113160</v>
       </c>
       <c r="C34" s="6">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D34" s="6">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E34" s="6">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F34" s="6">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G34" s="6">
         <v>172</v>
@@ -13582,16 +13602,16 @@
         <v>127150</v>
       </c>
       <c r="C35" s="6">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D35" s="6">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E35" s="6">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F35" s="6">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="G35" s="6">
         <v>176</v>
@@ -13605,16 +13625,16 @@
         <v>143220</v>
       </c>
       <c r="C36" s="6">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D36" s="6">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E36" s="6">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F36" s="6">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G36" s="6">
         <v>180</v>
@@ -13628,16 +13648,16 @@
         <v>159400</v>
       </c>
       <c r="C37" s="6">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D37" s="6">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E37" s="6">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F37" s="6">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G37" s="6">
         <v>184</v>
@@ -13651,16 +13671,16 @@
         <v>214360</v>
       </c>
       <c r="C38" s="6">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D38" s="6">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E38" s="6">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F38" s="6">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G38" s="6">
         <v>188</v>
@@ -13674,16 +13694,16 @@
         <v>237130</v>
       </c>
       <c r="C39" s="6">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D39" s="6">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E39" s="6">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F39" s="6">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G39" s="6">
         <v>192</v>
@@ -13697,16 +13717,16 @@
         <v>262890</v>
       </c>
       <c r="C40" s="6">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D40" s="6">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E40" s="6">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F40" s="6">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G40" s="6">
         <v>196</v>
@@ -13720,16 +13740,16 @@
         <v>289160</v>
       </c>
       <c r="C41" s="6">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D41" s="6">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E41" s="6">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F41" s="6">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G41" s="6">
         <v>200</v>

--- a/Dragonfall/gameData/shared/BuildingFunction.xlsx
+++ b/Dragonfall/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>FLOAT_efficiency</t>
   </si>
@@ -229,29 +229,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman</t>
-  </si>
-  <si>
-    <t>STR_unlockedSoldiers</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -268,22 +245,6 @@
   </si>
   <si>
     <t>INT_power</t>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult,ballista</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FLOAT_protection</t>
@@ -2473,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3559,16 +3520,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4164,34 +4125,34 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>5</v>
@@ -6466,16 +6427,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7065,16 +7026,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7664,16 +7625,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8266,16 +8227,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -9825,7 +9786,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -11359,7 +11320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -12803,8 +12764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13769,20 +13730,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -13790,569 +13749,446 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>150</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>200</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>250</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>300</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>350</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3">
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>400</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="3">
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>450</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3">
         <v>890</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>500</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="3">
         <v>1120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>550</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="3">
         <v>1470</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>600</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="3">
         <v>2940</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>650</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="3">
         <v>4580</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>700</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="3">
         <v>6340</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>750</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="3">
         <v>9250</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>800</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="3">
         <v>11380</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>850</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>900</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>950</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="3">
         <v>22130</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>1000</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="3">
         <v>25360</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>1100</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="3">
         <v>29270</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>1200</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="3">
         <v>32940</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>1300</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="3">
         <v>44980</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>1400</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="3">
         <v>50210</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>1500</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="3">
         <v>56480</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>1600</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="3">
         <v>62410</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>1700</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="3">
         <v>88820</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>1800</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="3">
         <v>102520</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>1900</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="3">
         <v>118410</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>2000</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="3">
         <v>134340</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1">
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>2100</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="3">
         <v>183880</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1">
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>2200</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="3">
         <v>206610</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1">
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>2300</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="3">
         <v>232730</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1">
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>2400</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="3">
         <v>259030</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1">
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>2500</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="3">
         <v>348330</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1">
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>2600</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39" s="3">
         <v>385330</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1">
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>2800</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="1">
         <v>427190</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1">
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>3000</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="1">
         <v>469890</v>
       </c>
     </row>
@@ -15338,19 +15174,19 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/BuildingFunction.xlsx
+++ b/Dragonfall/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="5"/>
+    <workbookView xWindow="880" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -499,7 +499,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="728">
+  <cellStyleXfs count="752">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -514,6 +514,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1257,7 +1281,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="728">
+  <cellStyles count="752">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1624,6 +1648,18 @@
     <cellStyle name="超链接" xfId="722" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="724" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1983,6 +2019,18 @@
     <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2434,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4109,10 +4157,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:L41"/>
+      <selection activeCell="J2" sqref="J2:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4181,13 +4229,13 @@
         <v>160</v>
       </c>
       <c r="H2" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="I2" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="J2" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="K2" s="1">
         <v>320</v>
@@ -4219,13 +4267,13 @@
         <v>320</v>
       </c>
       <c r="H3" s="1">
-        <v>15920</v>
+        <v>7960</v>
       </c>
       <c r="I3" s="1">
-        <v>15920</v>
+        <v>7960</v>
       </c>
       <c r="J3" s="1">
-        <v>15920</v>
+        <v>7960</v>
       </c>
       <c r="K3" s="1">
         <v>640</v>
@@ -4257,13 +4305,13 @@
         <v>480</v>
       </c>
       <c r="H4" s="1">
-        <v>31680</v>
+        <v>15840</v>
       </c>
       <c r="I4" s="1">
-        <v>31680</v>
+        <v>15840</v>
       </c>
       <c r="J4" s="1">
-        <v>31680</v>
+        <v>15840</v>
       </c>
       <c r="K4" s="1">
         <v>960</v>
@@ -4295,13 +4343,13 @@
         <v>640</v>
       </c>
       <c r="H5" s="1">
-        <v>47280</v>
+        <v>23640</v>
       </c>
       <c r="I5" s="1">
-        <v>47280</v>
+        <v>23640</v>
       </c>
       <c r="J5" s="1">
-        <v>47280</v>
+        <v>23640</v>
       </c>
       <c r="K5" s="1">
         <v>1280</v>
@@ -4333,13 +4381,13 @@
         <v>800</v>
       </c>
       <c r="H6" s="1">
-        <v>62720</v>
+        <v>31360</v>
       </c>
       <c r="I6" s="1">
-        <v>62720</v>
+        <v>31360</v>
       </c>
       <c r="J6" s="1">
-        <v>62720</v>
+        <v>31360</v>
       </c>
       <c r="K6" s="1">
         <v>1600</v>
@@ -4371,13 +4419,13 @@
         <v>960</v>
       </c>
       <c r="H7" s="1">
-        <v>78000</v>
+        <v>39000</v>
       </c>
       <c r="I7" s="1">
-        <v>78000</v>
+        <v>39000</v>
       </c>
       <c r="J7" s="1">
-        <v>78000</v>
+        <v>39000</v>
       </c>
       <c r="K7" s="1">
         <v>1920</v>
@@ -4409,13 +4457,13 @@
         <v>1120</v>
       </c>
       <c r="H8" s="1">
-        <v>93120</v>
+        <v>46560</v>
       </c>
       <c r="I8" s="1">
-        <v>93120</v>
+        <v>46560</v>
       </c>
       <c r="J8" s="1">
-        <v>93120</v>
+        <v>46560</v>
       </c>
       <c r="K8" s="1">
         <v>2240</v>
@@ -4447,13 +4495,13 @@
         <v>1280</v>
       </c>
       <c r="H9" s="1">
-        <v>115800</v>
+        <v>57900</v>
       </c>
       <c r="I9" s="1">
-        <v>115800</v>
+        <v>57900</v>
       </c>
       <c r="J9" s="1">
-        <v>115800</v>
+        <v>57900</v>
       </c>
       <c r="K9" s="1">
         <v>2560</v>
@@ -4485,13 +4533,13 @@
         <v>1440</v>
       </c>
       <c r="H10" s="1">
-        <v>153600</v>
+        <v>76800</v>
       </c>
       <c r="I10" s="1">
-        <v>153600</v>
+        <v>76800</v>
       </c>
       <c r="J10" s="1">
-        <v>153600</v>
+        <v>76800</v>
       </c>
       <c r="K10" s="1">
         <v>2880</v>
@@ -4523,13 +4571,13 @@
         <v>1600</v>
       </c>
       <c r="H11" s="1">
-        <v>191000</v>
+        <v>95500</v>
       </c>
       <c r="I11" s="1">
-        <v>191000</v>
+        <v>95500</v>
       </c>
       <c r="J11" s="1">
-        <v>191000</v>
+        <v>95500</v>
       </c>
       <c r="K11" s="1">
         <v>3200</v>
@@ -4561,13 +4609,13 @@
         <v>1760</v>
       </c>
       <c r="H12" s="1">
-        <v>228000</v>
+        <v>114000</v>
       </c>
       <c r="I12" s="1">
-        <v>228000</v>
+        <v>114000</v>
       </c>
       <c r="J12" s="1">
-        <v>228000</v>
+        <v>114000</v>
       </c>
       <c r="K12" s="1">
         <v>3520</v>
@@ -4599,13 +4647,13 @@
         <v>1920</v>
       </c>
       <c r="H13" s="1">
-        <v>264600</v>
+        <v>132300</v>
       </c>
       <c r="I13" s="1">
-        <v>264600</v>
+        <v>132300</v>
       </c>
       <c r="J13" s="1">
-        <v>264600</v>
+        <v>132300</v>
       </c>
       <c r="K13" s="1">
         <v>3840</v>
@@ -4637,13 +4685,13 @@
         <v>2080</v>
       </c>
       <c r="H14" s="1">
-        <v>300800</v>
+        <v>150400</v>
       </c>
       <c r="I14" s="1">
-        <v>300800</v>
+        <v>150400</v>
       </c>
       <c r="J14" s="1">
-        <v>300800</v>
+        <v>150400</v>
       </c>
       <c r="K14" s="1">
         <v>4160</v>
@@ -4675,13 +4723,13 @@
         <v>2240</v>
       </c>
       <c r="H15" s="1">
-        <v>336600</v>
+        <v>168300</v>
       </c>
       <c r="I15" s="1">
-        <v>336600</v>
+        <v>168300</v>
       </c>
       <c r="J15" s="1">
-        <v>336600</v>
+        <v>168300</v>
       </c>
       <c r="K15" s="1">
         <v>4480</v>
@@ -4713,13 +4761,13 @@
         <v>2400</v>
       </c>
       <c r="H16" s="1">
-        <v>372000</v>
+        <v>186000</v>
       </c>
       <c r="I16" s="1">
-        <v>372000</v>
+        <v>186000</v>
       </c>
       <c r="J16" s="1">
-        <v>372000</v>
+        <v>186000</v>
       </c>
       <c r="K16" s="1">
         <v>4800</v>
@@ -4751,13 +4799,13 @@
         <v>2560</v>
       </c>
       <c r="H17" s="1">
-        <v>407000</v>
+        <v>203500</v>
       </c>
       <c r="I17" s="1">
-        <v>407000</v>
+        <v>203500</v>
       </c>
       <c r="J17" s="1">
-        <v>407000</v>
+        <v>203500</v>
       </c>
       <c r="K17" s="1">
         <v>5120</v>
@@ -4789,13 +4837,13 @@
         <v>2880</v>
       </c>
       <c r="H18" s="1">
-        <v>441600</v>
+        <v>220800</v>
       </c>
       <c r="I18" s="1">
-        <v>441600</v>
+        <v>220800</v>
       </c>
       <c r="J18" s="1">
-        <v>441600</v>
+        <v>220800</v>
       </c>
       <c r="K18" s="1">
         <v>5760</v>
@@ -4827,13 +4875,13 @@
         <v>3200</v>
       </c>
       <c r="H19" s="1">
-        <v>475800</v>
+        <v>237900</v>
       </c>
       <c r="I19" s="1">
-        <v>475800</v>
+        <v>237900</v>
       </c>
       <c r="J19" s="1">
-        <v>475800</v>
+        <v>237900</v>
       </c>
       <c r="K19" s="1">
         <v>6400</v>
@@ -4865,13 +4913,13 @@
         <v>3520</v>
       </c>
       <c r="H20" s="1">
-        <v>509600</v>
+        <v>254800</v>
       </c>
       <c r="I20" s="1">
-        <v>509600</v>
+        <v>254800</v>
       </c>
       <c r="J20" s="1">
-        <v>509600</v>
+        <v>254800</v>
       </c>
       <c r="K20" s="1">
         <v>7040</v>
@@ -4903,13 +4951,13 @@
         <v>3840</v>
       </c>
       <c r="H21" s="1">
-        <v>543000</v>
+        <v>271500</v>
       </c>
       <c r="I21" s="1">
-        <v>543000</v>
+        <v>271500</v>
       </c>
       <c r="J21" s="1">
-        <v>543000</v>
+        <v>271500</v>
       </c>
       <c r="K21" s="1">
         <v>7680</v>
@@ -4941,13 +4989,13 @@
         <v>4160</v>
       </c>
       <c r="H22" s="1">
-        <v>576000</v>
+        <v>288000</v>
       </c>
       <c r="I22" s="1">
-        <v>576000</v>
+        <v>288000</v>
       </c>
       <c r="J22" s="1">
-        <v>576000</v>
+        <v>288000</v>
       </c>
       <c r="K22" s="1">
         <v>8320</v>
@@ -4979,13 +5027,13 @@
         <v>4480</v>
       </c>
       <c r="H23" s="1">
-        <v>608600</v>
+        <v>304300</v>
       </c>
       <c r="I23" s="1">
-        <v>608600</v>
+        <v>304300</v>
       </c>
       <c r="J23" s="1">
-        <v>608600</v>
+        <v>304300</v>
       </c>
       <c r="K23" s="1">
         <v>8960</v>
@@ -5017,13 +5065,13 @@
         <v>4800</v>
       </c>
       <c r="H24" s="1">
-        <v>640800</v>
+        <v>320400</v>
       </c>
       <c r="I24" s="1">
-        <v>640800</v>
+        <v>320400</v>
       </c>
       <c r="J24" s="1">
-        <v>640800</v>
+        <v>320400</v>
       </c>
       <c r="K24" s="1">
         <v>9600</v>
@@ -5055,13 +5103,13 @@
         <v>5120</v>
       </c>
       <c r="H25" s="1">
-        <v>672600</v>
+        <v>336300</v>
       </c>
       <c r="I25" s="1">
-        <v>672600</v>
+        <v>336300</v>
       </c>
       <c r="J25" s="1">
-        <v>672600</v>
+        <v>336300</v>
       </c>
       <c r="K25" s="1">
         <v>10240</v>
@@ -5093,13 +5141,13 @@
         <v>5440</v>
       </c>
       <c r="H26" s="1">
-        <v>704000</v>
+        <v>352000</v>
       </c>
       <c r="I26" s="1">
-        <v>704000</v>
+        <v>352000</v>
       </c>
       <c r="J26" s="1">
-        <v>704000</v>
+        <v>352000</v>
       </c>
       <c r="K26" s="1">
         <v>10880</v>
@@ -5131,13 +5179,13 @@
         <v>5760</v>
       </c>
       <c r="H27" s="1">
-        <v>770000</v>
+        <v>385000</v>
       </c>
       <c r="I27" s="1">
-        <v>770000</v>
+        <v>385000</v>
       </c>
       <c r="J27" s="1">
-        <v>770000</v>
+        <v>385000</v>
       </c>
       <c r="K27" s="1">
         <v>11520</v>
@@ -5169,13 +5217,13 @@
         <v>6080</v>
       </c>
       <c r="H28" s="1">
-        <v>835200</v>
+        <v>417600</v>
       </c>
       <c r="I28" s="1">
-        <v>835200</v>
+        <v>417600</v>
       </c>
       <c r="J28" s="1">
-        <v>835200</v>
+        <v>417600</v>
       </c>
       <c r="K28" s="1">
         <v>12160</v>
@@ -5207,13 +5255,13 @@
         <v>6400</v>
       </c>
       <c r="H29" s="1">
-        <v>899600</v>
+        <v>449800</v>
       </c>
       <c r="I29" s="1">
-        <v>899600</v>
+        <v>449800</v>
       </c>
       <c r="J29" s="1">
-        <v>899600</v>
+        <v>449800</v>
       </c>
       <c r="K29" s="1">
         <v>12800</v>
@@ -5245,13 +5293,13 @@
         <v>7200</v>
       </c>
       <c r="H30" s="1">
-        <v>963200</v>
+        <v>481600</v>
       </c>
       <c r="I30" s="1">
-        <v>963200</v>
+        <v>481600</v>
       </c>
       <c r="J30" s="1">
-        <v>963200</v>
+        <v>481600</v>
       </c>
       <c r="K30" s="1">
         <v>14400</v>
@@ -5283,13 +5331,13 @@
         <v>8000</v>
       </c>
       <c r="H31" s="1">
-        <v>1026000</v>
+        <v>513000</v>
       </c>
       <c r="I31" s="1">
-        <v>1026000</v>
+        <v>513000</v>
       </c>
       <c r="J31" s="1">
-        <v>1026000</v>
+        <v>513000</v>
       </c>
       <c r="K31" s="1">
         <v>16000</v>
@@ -5321,13 +5369,13 @@
         <v>8800</v>
       </c>
       <c r="H32" s="1">
-        <v>1088000</v>
+        <v>544000</v>
       </c>
       <c r="I32" s="1">
-        <v>1088000</v>
+        <v>544000</v>
       </c>
       <c r="J32" s="1">
-        <v>1088000</v>
+        <v>544000</v>
       </c>
       <c r="K32" s="1">
         <v>17600</v>
@@ -5359,13 +5407,13 @@
         <v>9600</v>
       </c>
       <c r="H33" s="1">
-        <v>1149200</v>
+        <v>574600</v>
       </c>
       <c r="I33" s="1">
-        <v>1149200</v>
+        <v>574600</v>
       </c>
       <c r="J33" s="1">
-        <v>1149200</v>
+        <v>574600</v>
       </c>
       <c r="K33" s="1">
         <v>19200</v>
@@ -5397,13 +5445,13 @@
         <v>10400</v>
       </c>
       <c r="H34" s="1">
-        <v>1209600</v>
+        <v>604800</v>
       </c>
       <c r="I34" s="1">
-        <v>1209600</v>
+        <v>604800</v>
       </c>
       <c r="J34" s="1">
-        <v>1209600</v>
+        <v>604800</v>
       </c>
       <c r="K34" s="1">
         <v>20800</v>
@@ -5435,13 +5483,13 @@
         <v>11200</v>
       </c>
       <c r="H35" s="1">
-        <v>1269200</v>
+        <v>634600</v>
       </c>
       <c r="I35" s="1">
-        <v>1269200</v>
+        <v>634600</v>
       </c>
       <c r="J35" s="1">
-        <v>1269200</v>
+        <v>634600</v>
       </c>
       <c r="K35" s="1">
         <v>22400</v>
@@ -5473,13 +5521,13 @@
         <v>12000</v>
       </c>
       <c r="H36" s="1">
-        <v>1328000</v>
+        <v>664000</v>
       </c>
       <c r="I36" s="1">
-        <v>1328000</v>
+        <v>664000</v>
       </c>
       <c r="J36" s="1">
-        <v>1328000</v>
+        <v>664000</v>
       </c>
       <c r="K36" s="1">
         <v>24000</v>
@@ -5511,13 +5559,13 @@
         <v>12800</v>
       </c>
       <c r="H37" s="1">
-        <v>1386000</v>
+        <v>693000</v>
       </c>
       <c r="I37" s="1">
-        <v>1386000</v>
+        <v>693000</v>
       </c>
       <c r="J37" s="1">
-        <v>1386000</v>
+        <v>693000</v>
       </c>
       <c r="K37" s="1">
         <v>25600</v>
@@ -5549,13 +5597,13 @@
         <v>13600</v>
       </c>
       <c r="H38" s="1">
-        <v>1443200</v>
+        <v>721600</v>
       </c>
       <c r="I38" s="1">
-        <v>1443200</v>
+        <v>721600</v>
       </c>
       <c r="J38" s="1">
-        <v>1443200</v>
+        <v>721600</v>
       </c>
       <c r="K38" s="1">
         <v>27200</v>
@@ -5587,13 +5635,13 @@
         <v>14400</v>
       </c>
       <c r="H39" s="1">
-        <v>1499600</v>
+        <v>749800</v>
       </c>
       <c r="I39" s="1">
-        <v>1499600</v>
+        <v>749800</v>
       </c>
       <c r="J39" s="1">
-        <v>1499600</v>
+        <v>749800</v>
       </c>
       <c r="K39" s="1">
         <v>28800</v>
@@ -5625,13 +5673,13 @@
         <v>15200</v>
       </c>
       <c r="H40" s="1">
-        <v>1555200</v>
+        <v>777600</v>
       </c>
       <c r="I40" s="1">
-        <v>1555200</v>
+        <v>777600</v>
       </c>
       <c r="J40" s="1">
-        <v>1555200</v>
+        <v>777600</v>
       </c>
       <c r="K40" s="1">
         <v>30400</v>
@@ -5663,13 +5711,13 @@
         <v>16000</v>
       </c>
       <c r="H41" s="1">
-        <v>1600000</v>
+        <v>800000</v>
       </c>
       <c r="I41" s="1">
-        <v>1600000</v>
+        <v>800000</v>
       </c>
       <c r="J41" s="1">
-        <v>1600000</v>
+        <v>800000</v>
       </c>
       <c r="K41" s="1">
         <v>32000</v>
@@ -5677,6 +5725,30 @@
       <c r="L41" s="1">
         <v>404820</v>
       </c>
+    </row>
+    <row r="90" spans="6:6" ht="20" customHeight="1">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="6:6" ht="20" customHeight="1">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="6:6" ht="20" customHeight="1">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="6:6" ht="20" customHeight="1">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="6:6" ht="20" customHeight="1">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="6:6" ht="20" customHeight="1">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="6:6" ht="20" customHeight="1">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="6:6" ht="20" customHeight="1">
+      <c r="F97" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -6416,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B44"/>
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6446,8 +6518,8 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.01</v>
+      <c r="C2" s="6">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="3">
         <v>40</v>
@@ -6460,8 +6532,8 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.02</v>
+      <c r="C3" s="6">
+        <v>0.01</v>
       </c>
       <c r="D3" s="3">
         <v>45</v>
@@ -6474,8 +6546,8 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.03</v>
+      <c r="C4" s="6">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="3">
         <v>50</v>
@@ -6488,8 +6560,8 @@
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.04</v>
+      <c r="C5" s="6">
+        <v>0.02</v>
       </c>
       <c r="D5" s="3">
         <v>60</v>
@@ -6502,8 +6574,8 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.05</v>
+      <c r="C6" s="6">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="3">
         <v>70</v>
@@ -6516,8 +6588,8 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.06</v>
+      <c r="C7" s="6">
+        <v>0.03</v>
       </c>
       <c r="D7" s="3">
         <v>80</v>
@@ -6530,8 +6602,8 @@
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C8" s="6">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
@@ -6544,8 +6616,8 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.08</v>
+      <c r="C9" s="6">
+        <v>0.04</v>
       </c>
       <c r="D9" s="3">
         <v>160</v>
@@ -6558,8 +6630,8 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.09</v>
+      <c r="C10" s="6">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D10" s="3">
         <v>310</v>
@@ -6572,8 +6644,8 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.1</v>
+      <c r="C11" s="6">
+        <v>0.05</v>
       </c>
       <c r="D11" s="3">
         <v>450</v>
@@ -6586,8 +6658,8 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.11</v>
+      <c r="C12" s="6">
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="3">
         <v>610</v>
@@ -6600,8 +6672,8 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.12</v>
+      <c r="C13" s="6">
+        <v>0.06</v>
       </c>
       <c r="D13" s="3">
         <v>770</v>
@@ -6614,8 +6686,8 @@
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.13</v>
+      <c r="C14" s="6">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="3">
         <v>1010</v>
@@ -6628,8 +6700,8 @@
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.14000000000000001</v>
+      <c r="C15" s="6">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="3">
         <v>2010</v>
@@ -6642,8 +6714,8 @@
       <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.15</v>
+      <c r="C16" s="6">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="3">
         <v>3120</v>
@@ -6656,8 +6728,8 @@
       <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.16</v>
+      <c r="C17" s="6">
+        <v>0.08</v>
       </c>
       <c r="D17" s="3">
         <v>4300</v>
@@ -6670,8 +6742,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.17</v>
+      <c r="C18" s="6">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D18" s="3">
         <v>6270</v>
@@ -6684,8 +6756,8 @@
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.18</v>
+      <c r="C19" s="6">
+        <v>0.09</v>
       </c>
       <c r="D19" s="3">
         <v>7720</v>
@@ -6698,8 +6770,8 @@
       <c r="B20" s="6">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.19</v>
+      <c r="C20" s="6">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D20" s="3">
         <v>9420</v>
@@ -6712,8 +6784,8 @@
       <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.2</v>
+      <c r="C21" s="6">
+        <v>0.1</v>
       </c>
       <c r="D21" s="3">
         <v>11040</v>
@@ -6726,8 +6798,8 @@
       <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.21</v>
+      <c r="C22" s="6">
+        <v>0.105</v>
       </c>
       <c r="D22" s="3">
         <v>14990</v>
@@ -6740,8 +6812,8 @@
       <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.22</v>
+      <c r="C23" s="6">
+        <v>0.11</v>
       </c>
       <c r="D23" s="3">
         <v>17180</v>
@@ -6754,8 +6826,8 @@
       <c r="B24" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
-        <v>0.23</v>
+      <c r="C24" s="6">
+        <v>0.115</v>
       </c>
       <c r="D24" s="3">
         <v>19830</v>
@@ -6768,8 +6840,8 @@
       <c r="B25" s="6">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <v>0.24</v>
+      <c r="C25" s="6">
+        <v>0.12</v>
       </c>
       <c r="D25" s="3">
         <v>22310</v>
@@ -6782,8 +6854,8 @@
       <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.25</v>
+      <c r="C26" s="6">
+        <v>0.125</v>
       </c>
       <c r="D26" s="3">
         <v>30460</v>
@@ -6796,8 +6868,8 @@
       <c r="B27" s="6">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
-        <v>0.26</v>
+      <c r="C27" s="6">
+        <v>0.13</v>
       </c>
       <c r="D27" s="3">
         <v>34000</v>
@@ -6810,8 +6882,8 @@
       <c r="B28" s="6">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>0.27</v>
+      <c r="C28" s="6">
+        <v>0.13500000000000001</v>
       </c>
       <c r="D28" s="3">
         <v>38250</v>
@@ -6824,8 +6896,8 @@
       <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
-        <v>0.28000000000000003</v>
+      <c r="C29" s="6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="D29" s="3">
         <v>42260</v>
@@ -6838,8 +6910,8 @@
       <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
-        <v>0.28999999999999998</v>
+      <c r="C30" s="6">
+        <v>0.14499999999999999</v>
       </c>
       <c r="D30" s="3">
         <v>60130</v>
@@ -6852,8 +6924,8 @@
       <c r="B31" s="6">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
-        <v>0.3</v>
+      <c r="C31" s="6">
+        <v>0.15</v>
       </c>
       <c r="D31" s="3">
         <v>69410</v>
@@ -6866,8 +6938,8 @@
       <c r="B32" s="6">
         <v>5</v>
       </c>
-      <c r="C32" s="3">
-        <v>0.31</v>
+      <c r="C32" s="6">
+        <v>0.155</v>
       </c>
       <c r="D32" s="3">
         <v>80170</v>
@@ -6880,8 +6952,8 @@
       <c r="B33" s="6">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
-        <v>0.32</v>
+      <c r="C33" s="6">
+        <v>0.16</v>
       </c>
       <c r="D33" s="3">
         <v>90950</v>
@@ -6894,8 +6966,8 @@
       <c r="B34" s="6">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.33</v>
+      <c r="C34" s="6">
+        <v>0.16500000000000001</v>
       </c>
       <c r="D34" s="3">
         <v>124480</v>
@@ -6908,8 +6980,8 @@
       <c r="B35" s="6">
         <v>5</v>
       </c>
-      <c r="C35" s="3">
-        <v>0.34</v>
+      <c r="C35" s="6">
+        <v>0.17</v>
       </c>
       <c r="D35" s="3">
         <v>139870</v>
@@ -6922,8 +6994,8 @@
       <c r="B36" s="6">
         <v>5</v>
       </c>
-      <c r="C36" s="3">
-        <v>0.35</v>
+      <c r="C36" s="6">
+        <v>0.17499999999999999</v>
       </c>
       <c r="D36" s="3">
         <v>157550</v>
@@ -6936,8 +7008,8 @@
       <c r="B37" s="6">
         <v>6</v>
       </c>
-      <c r="C37" s="3">
-        <v>0.36</v>
+      <c r="C37" s="6">
+        <v>0.18</v>
       </c>
       <c r="D37" s="3">
         <v>175350</v>
@@ -6950,8 +7022,8 @@
       <c r="B38" s="6">
         <v>6</v>
       </c>
-      <c r="C38" s="3">
-        <v>0.37</v>
+      <c r="C38" s="6">
+        <v>0.185</v>
       </c>
       <c r="D38" s="3">
         <v>235810</v>
@@ -6964,8 +7036,8 @@
       <c r="B39" s="6">
         <v>6</v>
       </c>
-      <c r="C39" s="3">
-        <v>0.38</v>
+      <c r="C39" s="6">
+        <v>0.19</v>
       </c>
       <c r="D39" s="3">
         <v>260850</v>
@@ -6978,8 +7050,8 @@
       <c r="B40" s="6">
         <v>6</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.39</v>
+      <c r="C40" s="6">
+        <v>0.19500000000000001</v>
       </c>
       <c r="D40" s="1">
         <v>289190</v>
@@ -6992,8 +7064,8 @@
       <c r="B41" s="6">
         <v>6</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.4</v>
+      <c r="C41" s="6">
+        <v>0.2</v>
       </c>
       <c r="D41" s="1">
         <v>318090</v>
@@ -7015,8 +7087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7046,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
@@ -7060,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D3" s="6">
         <v>45</v>
@@ -7074,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="6">
         <v>50</v>
@@ -7088,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D5" s="6">
         <v>60</v>
@@ -7102,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="6">
         <v>70</v>
@@ -7116,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="6">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D7" s="6">
         <v>80</v>
@@ -7130,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8" s="6">
         <v>100</v>
@@ -7144,7 +7216,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="6">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="D9" s="6">
         <v>170</v>
@@ -7158,7 +7230,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="6">
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D10" s="6">
         <v>320</v>
@@ -7172,7 +7244,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D11" s="6">
         <v>470</v>
@@ -7186,7 +7258,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>0.11</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="6">
         <v>640</v>
@@ -7200,7 +7272,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="6">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="D13" s="6">
         <v>800</v>
@@ -7214,7 +7286,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="6">
-        <v>0.13</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="6">
         <v>1050</v>
@@ -7228,7 +7300,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="6">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="6">
         <v>2100</v>
@@ -7242,7 +7314,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="6">
-        <v>0.15</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="6">
         <v>3260</v>
@@ -7256,7 +7328,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="6">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="D17" s="6">
         <v>4500</v>
@@ -7270,7 +7342,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="6">
-        <v>0.17</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D18" s="6">
         <v>6560</v>
@@ -7284,7 +7356,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="6">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="D19" s="6">
         <v>8070</v>
@@ -7298,7 +7370,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="6">
-        <v>0.19</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D20" s="6">
         <v>9850</v>
@@ -7312,7 +7384,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D21" s="6">
         <v>11540</v>
@@ -7326,7 +7398,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="6">
-        <v>0.21</v>
+        <v>0.105</v>
       </c>
       <c r="D22" s="6">
         <v>15670</v>
@@ -7340,7 +7412,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="6">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="D23" s="6">
         <v>17960</v>
@@ -7354,7 +7426,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6">
-        <v>0.23</v>
+        <v>0.115</v>
       </c>
       <c r="D24" s="6">
         <v>20720</v>
@@ -7368,7 +7440,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="6">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="D25" s="6">
         <v>23320</v>
@@ -7382,7 +7454,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="6">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="D26" s="6">
         <v>31840</v>
@@ -7396,7 +7468,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="6">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="D27" s="6">
         <v>35540</v>
@@ -7410,7 +7482,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="6">
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D28" s="6">
         <v>39980</v>
@@ -7424,7 +7496,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="6">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D29" s="6">
         <v>44180</v>
@@ -7438,7 +7510,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="6">
-        <v>0.28999999999999998</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D30" s="6">
         <v>62870</v>
@@ -7452,7 +7524,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="6">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D31" s="6">
         <v>72570</v>
@@ -7466,7 +7538,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="6">
-        <v>0.31</v>
+        <v>0.155</v>
       </c>
       <c r="D32" s="6">
         <v>83810</v>
@@ -7480,7 +7552,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="6">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="D33" s="6">
         <v>95090</v>
@@ -7494,7 +7566,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="6">
-        <v>0.33</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D34" s="6">
         <v>130140</v>
@@ -7508,7 +7580,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="6">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="D35" s="6">
         <v>146230</v>
@@ -7522,7 +7594,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="6">
-        <v>0.35</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D36" s="6">
         <v>164710</v>
@@ -7536,7 +7608,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="6">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="D37" s="6">
         <v>183320</v>
@@ -7550,7 +7622,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="6">
-        <v>0.37</v>
+        <v>0.185</v>
       </c>
       <c r="D38" s="6">
         <v>246520</v>
@@ -7564,7 +7636,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="6">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="D39" s="6">
         <v>272710</v>
@@ -7578,7 +7650,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="6">
-        <v>0.39</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D40" s="6">
         <v>302330</v>
@@ -7592,7 +7664,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D41" s="1">
         <v>332550</v>
@@ -7614,8 +7686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7644,8 +7716,8 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.01</v>
+      <c r="C2" s="6">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="3">
         <v>45</v>
@@ -7658,8 +7730,8 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.02</v>
+      <c r="C3" s="6">
+        <v>0.01</v>
       </c>
       <c r="D3" s="3">
         <v>50</v>
@@ -7672,8 +7744,8 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.03</v>
+      <c r="C4" s="6">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="3">
         <v>55</v>
@@ -7686,8 +7758,8 @@
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.04</v>
+      <c r="C5" s="6">
+        <v>0.02</v>
       </c>
       <c r="D5" s="3">
         <v>60</v>
@@ -7700,8 +7772,8 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.05</v>
+      <c r="C6" s="6">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="3">
         <v>70</v>
@@ -7714,8 +7786,8 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.06</v>
+      <c r="C7" s="6">
+        <v>0.03</v>
       </c>
       <c r="D7" s="3">
         <v>80</v>
@@ -7728,8 +7800,8 @@
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C8" s="6">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
@@ -7742,8 +7814,8 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.08</v>
+      <c r="C9" s="6">
+        <v>0.04</v>
       </c>
       <c r="D9" s="3">
         <v>170</v>
@@ -7756,8 +7828,8 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.09</v>
+      <c r="C10" s="6">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D10" s="3">
         <v>330</v>
@@ -7770,8 +7842,8 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.1</v>
+      <c r="C11" s="6">
+        <v>0.05</v>
       </c>
       <c r="D11" s="3">
         <v>490</v>
@@ -7784,8 +7856,8 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.11</v>
+      <c r="C12" s="6">
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="3">
         <v>660</v>
@@ -7798,8 +7870,8 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.12</v>
+      <c r="C13" s="6">
+        <v>0.06</v>
       </c>
       <c r="D13" s="3">
         <v>830</v>
@@ -7812,8 +7884,8 @@
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.13</v>
+      <c r="C14" s="6">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="3">
         <v>1090</v>
@@ -7826,8 +7898,8 @@
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.14000000000000001</v>
+      <c r="C15" s="6">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="3">
         <v>2190</v>
@@ -7840,8 +7912,8 @@
       <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.15</v>
+      <c r="C16" s="6">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="3">
         <v>3400</v>
@@ -7854,8 +7926,8 @@
       <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.16</v>
+      <c r="C17" s="6">
+        <v>0.08</v>
       </c>
       <c r="D17" s="3">
         <v>4690</v>
@@ -7868,8 +7940,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.17</v>
+      <c r="C18" s="6">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D18" s="3">
         <v>6840</v>
@@ -7882,8 +7954,8 @@
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.18</v>
+      <c r="C19" s="6">
+        <v>0.09</v>
       </c>
       <c r="D19" s="3">
         <v>8410</v>
@@ -7896,8 +7968,8 @@
       <c r="B20" s="6">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.19</v>
+      <c r="C20" s="6">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D20" s="3">
         <v>10270</v>
@@ -7910,8 +7982,8 @@
       <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.2</v>
+      <c r="C21" s="6">
+        <v>0.1</v>
       </c>
       <c r="D21" s="3">
         <v>12040</v>
@@ -7924,8 +7996,8 @@
       <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.21</v>
+      <c r="C22" s="6">
+        <v>0.105</v>
       </c>
       <c r="D22" s="3">
         <v>16350</v>
@@ -7938,8 +8010,8 @@
       <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.22</v>
+      <c r="C23" s="6">
+        <v>0.11</v>
       </c>
       <c r="D23" s="3">
         <v>18740</v>
@@ -7952,8 +8024,8 @@
       <c r="B24" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
-        <v>0.23</v>
+      <c r="C24" s="6">
+        <v>0.115</v>
       </c>
       <c r="D24" s="3">
         <v>21620</v>
@@ -7966,8 +8038,8 @@
       <c r="B25" s="6">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <v>0.24</v>
+      <c r="C25" s="6">
+        <v>0.12</v>
       </c>
       <c r="D25" s="3">
         <v>24330</v>
@@ -7980,8 +8052,8 @@
       <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.25</v>
+      <c r="C26" s="6">
+        <v>0.125</v>
       </c>
       <c r="D26" s="3">
         <v>33230</v>
@@ -7994,8 +8066,8 @@
       <c r="B27" s="6">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
-        <v>0.26</v>
+      <c r="C27" s="6">
+        <v>0.13</v>
       </c>
       <c r="D27" s="3">
         <v>37090</v>
@@ -8008,8 +8080,8 @@
       <c r="B28" s="6">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>0.27</v>
+      <c r="C28" s="6">
+        <v>0.13500000000000001</v>
       </c>
       <c r="D28" s="3">
         <v>41720</v>
@@ -8022,8 +8094,8 @@
       <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
-        <v>0.28000000000000003</v>
+      <c r="C29" s="6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="D29" s="3">
         <v>46100</v>
@@ -8036,8 +8108,8 @@
       <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
-        <v>0.28999999999999998</v>
+      <c r="C30" s="6">
+        <v>0.14499999999999999</v>
       </c>
       <c r="D30" s="3">
         <v>65600</v>
@@ -8050,8 +8122,8 @@
       <c r="B31" s="6">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
-        <v>0.3</v>
+      <c r="C31" s="6">
+        <v>0.15</v>
       </c>
       <c r="D31" s="3">
         <v>75720</v>
@@ -8064,8 +8136,8 @@
       <c r="B32" s="6">
         <v>5</v>
       </c>
-      <c r="C32" s="3">
-        <v>0.31</v>
+      <c r="C32" s="6">
+        <v>0.155</v>
       </c>
       <c r="D32" s="3">
         <v>87450</v>
@@ -8078,8 +8150,8 @@
       <c r="B33" s="6">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
-        <v>0.32</v>
+      <c r="C33" s="6">
+        <v>0.16</v>
       </c>
       <c r="D33" s="3">
         <v>99220</v>
@@ -8092,8 +8164,8 @@
       <c r="B34" s="6">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.33</v>
+      <c r="C34" s="6">
+        <v>0.16500000000000001</v>
       </c>
       <c r="D34" s="3">
         <v>135800</v>
@@ -8106,8 +8178,8 @@
       <c r="B35" s="6">
         <v>5</v>
       </c>
-      <c r="C35" s="3">
-        <v>0.34</v>
+      <c r="C35" s="6">
+        <v>0.17</v>
       </c>
       <c r="D35" s="3">
         <v>152590</v>
@@ -8120,8 +8192,8 @@
       <c r="B36" s="6">
         <v>5</v>
       </c>
-      <c r="C36" s="3">
-        <v>0.35</v>
+      <c r="C36" s="6">
+        <v>0.17499999999999999</v>
       </c>
       <c r="D36" s="3">
         <v>171870</v>
@@ -8134,8 +8206,8 @@
       <c r="B37" s="6">
         <v>6</v>
       </c>
-      <c r="C37" s="3">
-        <v>0.36</v>
+      <c r="C37" s="6">
+        <v>0.18</v>
       </c>
       <c r="D37" s="3">
         <v>191290</v>
@@ -8148,8 +8220,8 @@
       <c r="B38" s="6">
         <v>6</v>
       </c>
-      <c r="C38" s="3">
-        <v>0.37</v>
+      <c r="C38" s="6">
+        <v>0.185</v>
       </c>
       <c r="D38" s="3">
         <v>257240</v>
@@ -8162,8 +8234,8 @@
       <c r="B39" s="6">
         <v>6</v>
       </c>
-      <c r="C39" s="3">
-        <v>0.38</v>
+      <c r="C39" s="6">
+        <v>0.19</v>
       </c>
       <c r="D39" s="3">
         <v>284560</v>
@@ -8176,8 +8248,8 @@
       <c r="B40" s="6">
         <v>6</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.39</v>
+      <c r="C40" s="6">
+        <v>0.19500000000000001</v>
       </c>
       <c r="D40" s="3">
         <v>315470</v>
@@ -8190,8 +8262,8 @@
       <c r="B41" s="6">
         <v>6</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.4</v>
+      <c r="C41" s="6">
+        <v>0.2</v>
       </c>
       <c r="D41" s="3">
         <v>347000</v>
@@ -8216,8 +8288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8246,8 +8318,8 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.01</v>
+      <c r="C2" s="6">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="3">
         <v>40</v>
@@ -8260,8 +8332,8 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.02</v>
+      <c r="C3" s="6">
+        <v>0.01</v>
       </c>
       <c r="D3" s="3">
         <v>45</v>
@@ -8274,8 +8346,8 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.03</v>
+      <c r="C4" s="6">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="3">
         <v>50</v>
@@ -8288,8 +8360,8 @@
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.04</v>
+      <c r="C5" s="6">
+        <v>0.02</v>
       </c>
       <c r="D5" s="3">
         <v>60</v>
@@ -8302,8 +8374,8 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.05</v>
+      <c r="C6" s="6">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="3">
         <v>70</v>
@@ -8316,8 +8388,8 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.06</v>
+      <c r="C7" s="6">
+        <v>0.03</v>
       </c>
       <c r="D7" s="3">
         <v>80</v>
@@ -8330,8 +8402,8 @@
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C8" s="6">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
@@ -8344,8 +8416,8 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.08</v>
+      <c r="C9" s="6">
+        <v>0.04</v>
       </c>
       <c r="D9" s="3">
         <v>160</v>
@@ -8358,8 +8430,8 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.09</v>
+      <c r="C10" s="6">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D10" s="3">
         <v>300</v>
@@ -8372,8 +8444,8 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.1</v>
+      <c r="C11" s="6">
+        <v>0.05</v>
       </c>
       <c r="D11" s="3">
         <v>430</v>
@@ -8386,8 +8458,8 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.11</v>
+      <c r="C12" s="6">
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="3">
         <v>590</v>
@@ -8400,8 +8472,8 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.12</v>
+      <c r="C13" s="6">
+        <v>0.06</v>
       </c>
       <c r="D13" s="3">
         <v>740</v>
@@ -8414,8 +8486,8 @@
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.13</v>
+      <c r="C14" s="6">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="3">
         <v>960</v>
@@ -8428,8 +8500,8 @@
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.14000000000000001</v>
+      <c r="C15" s="6">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="3">
         <v>1920</v>
@@ -8442,8 +8514,8 @@
       <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.15</v>
+      <c r="C16" s="6">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="3">
         <v>2980</v>
@@ -8456,8 +8528,8 @@
       <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.16</v>
+      <c r="C17" s="6">
+        <v>0.08</v>
       </c>
       <c r="D17" s="3">
         <v>4110</v>
@@ -8470,8 +8542,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.17</v>
+      <c r="C18" s="6">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D18" s="3">
         <v>5990</v>
@@ -8484,8 +8556,8 @@
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.18</v>
+      <c r="C19" s="6">
+        <v>0.09</v>
       </c>
       <c r="D19" s="3">
         <v>7370</v>
@@ -8498,8 +8570,8 @@
       <c r="B20" s="6">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.19</v>
+      <c r="C20" s="6">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D20" s="3">
         <v>8990</v>
@@ -8512,8 +8584,8 @@
       <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.2</v>
+      <c r="C21" s="6">
+        <v>0.1</v>
       </c>
       <c r="D21" s="3">
         <v>10540</v>
@@ -8526,8 +8598,8 @@
       <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.21</v>
+      <c r="C22" s="6">
+        <v>0.105</v>
       </c>
       <c r="D22" s="3">
         <v>14310</v>
@@ -8540,8 +8612,8 @@
       <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.22</v>
+      <c r="C23" s="6">
+        <v>0.11</v>
       </c>
       <c r="D23" s="3">
         <v>16400</v>
@@ -8554,8 +8626,8 @@
       <c r="B24" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
-        <v>0.23</v>
+      <c r="C24" s="6">
+        <v>0.115</v>
       </c>
       <c r="D24" s="3">
         <v>18930</v>
@@ -8568,8 +8640,8 @@
       <c r="B25" s="6">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <v>0.24</v>
+      <c r="C25" s="6">
+        <v>0.12</v>
       </c>
       <c r="D25" s="3">
         <v>21300</v>
@@ -8582,8 +8654,8 @@
       <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.25</v>
+      <c r="C26" s="6">
+        <v>0.125</v>
       </c>
       <c r="D26" s="3">
         <v>29080</v>
@@ -8596,8 +8668,8 @@
       <c r="B27" s="6">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
-        <v>0.26</v>
+      <c r="C27" s="6">
+        <v>0.13</v>
       </c>
       <c r="D27" s="3">
         <v>32460</v>
@@ -8610,8 +8682,8 @@
       <c r="B28" s="6">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>0.27</v>
+      <c r="C28" s="6">
+        <v>0.13500000000000001</v>
       </c>
       <c r="D28" s="3">
         <v>36510</v>
@@ -8624,8 +8696,8 @@
       <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
-        <v>0.28000000000000003</v>
+      <c r="C29" s="6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="D29" s="3">
         <v>40340</v>
@@ -8638,8 +8710,8 @@
       <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
-        <v>0.28999999999999998</v>
+      <c r="C30" s="6">
+        <v>0.14499999999999999</v>
       </c>
       <c r="D30" s="3">
         <v>57400</v>
@@ -8652,8 +8724,8 @@
       <c r="B31" s="6">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
-        <v>0.3</v>
+      <c r="C31" s="6">
+        <v>0.15</v>
       </c>
       <c r="D31" s="3">
         <v>66260</v>
@@ -8666,8 +8738,8 @@
       <c r="B32" s="6">
         <v>5</v>
       </c>
-      <c r="C32" s="3">
-        <v>0.31</v>
+      <c r="C32" s="6">
+        <v>0.155</v>
       </c>
       <c r="D32" s="3">
         <v>76530</v>
@@ -8680,8 +8752,8 @@
       <c r="B33" s="6">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
-        <v>0.32</v>
+      <c r="C33" s="6">
+        <v>0.16</v>
       </c>
       <c r="D33" s="3">
         <v>86820</v>
@@ -8694,8 +8766,8 @@
       <c r="B34" s="6">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.33</v>
+      <c r="C34" s="6">
+        <v>0.16500000000000001</v>
       </c>
       <c r="D34" s="3">
         <v>118830</v>
@@ -8708,8 +8780,8 @@
       <c r="B35" s="6">
         <v>5</v>
       </c>
-      <c r="C35" s="3">
-        <v>0.34</v>
+      <c r="C35" s="6">
+        <v>0.17</v>
       </c>
       <c r="D35" s="3">
         <v>133520</v>
@@ -8722,8 +8794,8 @@
       <c r="B36" s="6">
         <v>5</v>
       </c>
-      <c r="C36" s="3">
-        <v>0.35</v>
+      <c r="C36" s="6">
+        <v>0.17499999999999999</v>
       </c>
       <c r="D36" s="3">
         <v>150390</v>
@@ -8736,8 +8808,8 @@
       <c r="B37" s="6">
         <v>6</v>
       </c>
-      <c r="C37" s="3">
-        <v>0.36</v>
+      <c r="C37" s="6">
+        <v>0.18</v>
       </c>
       <c r="D37" s="3">
         <v>167390</v>
@@ -8750,8 +8822,8 @@
       <c r="B38" s="6">
         <v>6</v>
       </c>
-      <c r="C38" s="3">
-        <v>0.37</v>
+      <c r="C38" s="6">
+        <v>0.185</v>
       </c>
       <c r="D38" s="3">
         <v>225090</v>
@@ -8764,8 +8836,8 @@
       <c r="B39" s="6">
         <v>6</v>
       </c>
-      <c r="C39" s="3">
-        <v>0.38</v>
+      <c r="C39" s="6">
+        <v>0.19</v>
       </c>
       <c r="D39" s="3">
         <v>249000</v>
@@ -8778,8 +8850,8 @@
       <c r="B40" s="6">
         <v>6</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.39</v>
+      <c r="C40" s="6">
+        <v>0.19500000000000001</v>
       </c>
       <c r="D40" s="1">
         <v>276040</v>
@@ -8792,8 +8864,8 @@
       <c r="B41" s="6">
         <v>6</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.4</v>
+      <c r="C41" s="6">
+        <v>0.2</v>
       </c>
       <c r="D41" s="1">
         <v>303630</v>
@@ -11320,7 +11392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -12765,7 +12837,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12804,16 +12876,16 @@
         <v>25</v>
       </c>
       <c r="C2" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G2" s="5">
         <v>44</v>
@@ -12827,16 +12899,16 @@
         <v>30</v>
       </c>
       <c r="C3" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="6">
         <v>48</v>
@@ -12850,16 +12922,16 @@
         <v>35</v>
       </c>
       <c r="C4" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6">
         <v>52</v>
@@ -12873,16 +12945,16 @@
         <v>40</v>
       </c>
       <c r="C5" s="6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F5" s="6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G5" s="6">
         <v>56</v>
@@ -12896,16 +12968,16 @@
         <v>50</v>
       </c>
       <c r="C6" s="6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F6" s="6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G6" s="6">
         <v>60</v>
@@ -12919,16 +12991,16 @@
         <v>60</v>
       </c>
       <c r="C7" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G7" s="6">
         <v>64</v>
@@ -12942,16 +13014,16 @@
         <v>80</v>
       </c>
       <c r="C8" s="6">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F8" s="6">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G8" s="6">
         <v>68</v>
@@ -12965,16 +13037,16 @@
         <v>130</v>
       </c>
       <c r="C9" s="6">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F9" s="6">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G9" s="6">
         <v>72</v>
@@ -12988,16 +13060,16 @@
         <v>270</v>
       </c>
       <c r="C10" s="6">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D10" s="6">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E10" s="6">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F10" s="6">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G10" s="6">
         <v>76</v>
@@ -13011,16 +13083,16 @@
         <v>400</v>
       </c>
       <c r="C11" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F11" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G11" s="6">
         <v>80</v>
@@ -13034,16 +13106,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D12" s="6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F12" s="6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G12" s="6">
         <v>84</v>
@@ -13057,16 +13129,16 @@
         <v>690</v>
       </c>
       <c r="C13" s="6">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E13" s="6">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F13" s="6">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G13" s="6">
         <v>88</v>
@@ -13080,16 +13152,16 @@
         <v>900</v>
       </c>
       <c r="C14" s="6">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D14" s="6">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E14" s="6">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F14" s="6">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G14" s="6">
         <v>92</v>
@@ -13103,16 +13175,16 @@
         <v>1810</v>
       </c>
       <c r="C15" s="6">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F15" s="6">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G15" s="6">
         <v>96</v>
@@ -13126,16 +13198,16 @@
         <v>2820</v>
       </c>
       <c r="C16" s="6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E16" s="6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F16" s="6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G16" s="6">
         <v>100</v>
@@ -13149,16 +13221,16 @@
         <v>3900</v>
       </c>
       <c r="C17" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D17" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E17" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F17" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G17" s="6">
         <v>104</v>
@@ -13172,16 +13244,16 @@
         <v>5690</v>
       </c>
       <c r="C18" s="6">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D18" s="6">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E18" s="6">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F18" s="6">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G18" s="6">
         <v>108</v>
@@ -13195,16 +13267,16 @@
         <v>7000</v>
       </c>
       <c r="C19" s="6">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D19" s="6">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E19" s="6">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F19" s="6">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G19" s="6">
         <v>112</v>
@@ -13218,16 +13290,16 @@
         <v>8550</v>
       </c>
       <c r="C20" s="6">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E20" s="6">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F20" s="6">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G20" s="6">
         <v>116</v>
@@ -13241,16 +13313,16 @@
         <v>10030</v>
       </c>
       <c r="C21" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D21" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E21" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F21" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G21" s="6">
         <v>120</v>
@@ -13264,16 +13336,16 @@
         <v>13620</v>
       </c>
       <c r="C22" s="6">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D22" s="6">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E22" s="6">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F22" s="6">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G22" s="6">
         <v>124</v>
@@ -13287,16 +13359,16 @@
         <v>15610</v>
       </c>
       <c r="C23" s="6">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D23" s="6">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E23" s="6">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F23" s="6">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G23" s="6">
         <v>128</v>
@@ -13310,16 +13382,16 @@
         <v>18010</v>
       </c>
       <c r="C24" s="6">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E24" s="6">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F24" s="6">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G24" s="6">
         <v>132</v>
@@ -13333,16 +13405,16 @@
         <v>20270</v>
       </c>
       <c r="C25" s="6">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D25" s="6">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E25" s="6">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F25" s="6">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G25" s="6">
         <v>136</v>
@@ -13356,16 +13428,16 @@
         <v>27680</v>
       </c>
       <c r="C26" s="6">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D26" s="6">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E26" s="6">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F26" s="6">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G26" s="6">
         <v>140</v>
@@ -13379,16 +13451,16 @@
         <v>30900</v>
       </c>
       <c r="C27" s="6">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D27" s="6">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E27" s="6">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F27" s="6">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G27" s="6">
         <v>144</v>
@@ -13402,16 +13474,16 @@
         <v>34760</v>
       </c>
       <c r="C28" s="6">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D28" s="6">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E28" s="6">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F28" s="6">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G28" s="6">
         <v>148</v>
@@ -13425,16 +13497,16 @@
         <v>38410</v>
       </c>
       <c r="C29" s="6">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D29" s="6">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E29" s="6">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F29" s="6">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G29" s="6">
         <v>152</v>
@@ -13448,16 +13520,16 @@
         <v>54660</v>
       </c>
       <c r="C30" s="6">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D30" s="6">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E30" s="6">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F30" s="6">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G30" s="6">
         <v>156</v>
@@ -13471,16 +13543,16 @@
         <v>63090</v>
       </c>
       <c r="C31" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D31" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E31" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F31" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G31" s="6">
         <v>160</v>
@@ -13494,16 +13566,16 @@
         <v>72870</v>
       </c>
       <c r="C32" s="6">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D32" s="6">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E32" s="6">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F32" s="6">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G32" s="6">
         <v>164</v>
@@ -13517,16 +13589,16 @@
         <v>82670</v>
       </c>
       <c r="C33" s="6">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D33" s="6">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E33" s="6">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F33" s="6">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="G33" s="6">
         <v>168</v>
@@ -13540,16 +13612,16 @@
         <v>113160</v>
       </c>
       <c r="C34" s="6">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D34" s="6">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E34" s="6">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F34" s="6">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G34" s="6">
         <v>172</v>
@@ -13563,16 +13635,16 @@
         <v>127150</v>
       </c>
       <c r="C35" s="6">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D35" s="6">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E35" s="6">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F35" s="6">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G35" s="6">
         <v>176</v>
@@ -13586,16 +13658,16 @@
         <v>143220</v>
       </c>
       <c r="C36" s="6">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D36" s="6">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E36" s="6">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F36" s="6">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G36" s="6">
         <v>180</v>
@@ -13609,16 +13681,16 @@
         <v>159400</v>
       </c>
       <c r="C37" s="6">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D37" s="6">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E37" s="6">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F37" s="6">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G37" s="6">
         <v>184</v>
@@ -13632,16 +13704,16 @@
         <v>214360</v>
       </c>
       <c r="C38" s="6">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D38" s="6">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E38" s="6">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F38" s="6">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G38" s="6">
         <v>188</v>
@@ -13655,16 +13727,16 @@
         <v>237130</v>
       </c>
       <c r="C39" s="6">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D39" s="6">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E39" s="6">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F39" s="6">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G39" s="6">
         <v>192</v>
@@ -13678,16 +13750,16 @@
         <v>262890</v>
       </c>
       <c r="C40" s="6">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D40" s="6">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E40" s="6">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F40" s="6">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G40" s="6">
         <v>196</v>
@@ -13701,16 +13773,16 @@
         <v>289160</v>
       </c>
       <c r="C41" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D41" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E41" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F41" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G41" s="6">
         <v>200</v>
@@ -13733,7 +13805,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13823,7 +13895,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C8" s="3">
         <v>130</v>
@@ -13834,7 +13906,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C9" s="3">
         <v>220</v>
@@ -13845,7 +13917,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="C10" s="3">
         <v>440</v>
@@ -13856,7 +13928,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C11" s="3">
         <v>650</v>
@@ -13867,7 +13939,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="C12" s="3">
         <v>890</v>
@@ -13878,7 +13950,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="C13" s="3">
         <v>1120</v>
@@ -13889,7 +13961,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="C14" s="3">
         <v>1470</v>
@@ -13900,7 +13972,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C15" s="3">
         <v>2940</v>
@@ -13911,7 +13983,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="C16" s="3">
         <v>4580</v>
@@ -13922,7 +13994,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="C17" s="3">
         <v>6340</v>
@@ -13933,7 +14005,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="C18" s="3">
         <v>9250</v>
@@ -13944,7 +14016,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="C19" s="3">
         <v>11380</v>
@@ -13955,7 +14027,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>850</v>
+        <v>1500</v>
       </c>
       <c r="C20" s="3">
         <v>13900</v>
@@ -13966,7 +14038,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="C21" s="3">
         <v>16300</v>
@@ -13977,7 +14049,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>950</v>
+        <v>1700</v>
       </c>
       <c r="C22" s="3">
         <v>22130</v>
@@ -13988,7 +14060,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="C23" s="3">
         <v>25360</v>
@@ -13999,7 +14071,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="C24" s="3">
         <v>29270</v>
@@ -14010,7 +14082,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="C25" s="3">
         <v>32940</v>
@@ -14021,7 +14093,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="C26" s="3">
         <v>44980</v>
@@ -14032,7 +14104,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="C27" s="3">
         <v>50210</v>
@@ -14043,7 +14115,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="C28" s="3">
         <v>56480</v>
@@ -14054,7 +14126,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="C29" s="3">
         <v>62410</v>
@@ -14065,7 +14137,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="C30" s="3">
         <v>88820</v>
@@ -14076,7 +14148,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="C31" s="3">
         <v>102520</v>
@@ -14087,7 +14159,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1900</v>
+        <v>3400</v>
       </c>
       <c r="C32" s="3">
         <v>118410</v>
@@ -14098,7 +14170,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="C33" s="3">
         <v>134340</v>
@@ -14109,7 +14181,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>2100</v>
+        <v>3800</v>
       </c>
       <c r="C34" s="3">
         <v>183880</v>
@@ -14120,7 +14192,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="C35" s="3">
         <v>206610</v>
@@ -14131,7 +14203,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>2300</v>
+        <v>4250</v>
       </c>
       <c r="C36" s="3">
         <v>232730</v>
@@ -14142,7 +14214,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>2400</v>
+        <v>4500</v>
       </c>
       <c r="C37" s="3">
         <v>259030</v>
@@ -14153,7 +14225,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>2500</v>
+        <v>4750</v>
       </c>
       <c r="C38" s="3">
         <v>348330</v>
@@ -14164,7 +14236,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>2600</v>
+        <v>5000</v>
       </c>
       <c r="C39" s="3">
         <v>385330</v>
@@ -14175,7 +14247,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>2800</v>
+        <v>5500</v>
       </c>
       <c r="C40" s="1">
         <v>427190</v>
@@ -14186,7 +14258,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="C41" s="1">
         <v>469890</v>
@@ -15161,7 +15233,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:F41"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15194,16 +15266,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3">
         <v>15</v>
@@ -15214,16 +15286,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F3" s="3">
         <v>20</v>
@@ -15234,16 +15306,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D4" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="E4" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F4" s="3">
         <v>25</v>
@@ -15254,16 +15326,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="C5" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="D5" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E5" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="F5" s="3">
         <v>30</v>
@@ -15274,16 +15346,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="C6" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="D6" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="E6" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -15294,16 +15366,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C7" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D7" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E7" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -15314,16 +15386,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="C8" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="D8" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="E8" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
@@ -15334,16 +15406,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="C9" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="D9" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="E9" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="F9" s="3">
         <v>160</v>
@@ -15354,16 +15426,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="C10" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="D10" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="E10" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="F10" s="3">
         <v>350</v>
@@ -15374,16 +15446,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="C11" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="D11" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="E11" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="F11" s="3">
         <v>520</v>
@@ -15394,16 +15466,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="C12" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="D12" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E12" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="F12" s="3">
         <v>730</v>
@@ -15414,16 +15486,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="C13" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="D13" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="E13" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="F13" s="3">
         <v>920</v>
@@ -15434,16 +15506,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="C14" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="D14" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="E14" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="F14" s="3">
         <v>1220</v>
@@ -15454,16 +15526,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="C15" s="1">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="D15" s="1">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="E15" s="1">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="F15" s="3">
         <v>2470</v>
@@ -15474,16 +15546,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="C16" s="1">
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="D16" s="1">
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="E16" s="1">
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="F16" s="3">
         <v>3860</v>
@@ -15494,16 +15566,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="C17" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="D17" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E17" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="F17" s="3">
         <v>5340</v>
@@ -15514,16 +15586,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="C18" s="1">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="D18" s="1">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="E18" s="1">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="F18" s="3">
         <v>7800</v>
@@ -15534,16 +15606,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1360</v>
+        <v>2720</v>
       </c>
       <c r="C19" s="1">
-        <v>1360</v>
+        <v>2720</v>
       </c>
       <c r="D19" s="1">
-        <v>1360</v>
+        <v>2720</v>
       </c>
       <c r="E19" s="1">
-        <v>1360</v>
+        <v>2720</v>
       </c>
       <c r="F19" s="3">
         <v>9610</v>
@@ -15554,16 +15626,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="C20" s="1">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="D20" s="1">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="E20" s="1">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="F20" s="3">
         <v>11730</v>
@@ -15574,16 +15646,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1520</v>
+        <v>3040</v>
       </c>
       <c r="C21" s="1">
-        <v>1520</v>
+        <v>3040</v>
       </c>
       <c r="D21" s="1">
-        <v>1520</v>
+        <v>3040</v>
       </c>
       <c r="E21" s="1">
-        <v>1520</v>
+        <v>3040</v>
       </c>
       <c r="F21" s="3">
         <v>13770</v>
@@ -15594,16 +15666,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="C22" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="D22" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="F22" s="3">
         <v>18700</v>
@@ -15614,16 +15686,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1680</v>
+        <v>3360</v>
       </c>
       <c r="C23" s="1">
-        <v>1680</v>
+        <v>3360</v>
       </c>
       <c r="D23" s="1">
-        <v>1680</v>
+        <v>3360</v>
       </c>
       <c r="E23" s="1">
-        <v>1680</v>
+        <v>3360</v>
       </c>
       <c r="F23" s="3">
         <v>21440</v>
@@ -15634,16 +15706,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1760</v>
+        <v>3520</v>
       </c>
       <c r="C24" s="1">
-        <v>1760</v>
+        <v>3520</v>
       </c>
       <c r="D24" s="1">
-        <v>1760</v>
+        <v>3520</v>
       </c>
       <c r="E24" s="1">
-        <v>1760</v>
+        <v>3520</v>
       </c>
       <c r="F24" s="3">
         <v>24740</v>
@@ -15654,16 +15726,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1840</v>
+        <v>3680</v>
       </c>
       <c r="C25" s="1">
-        <v>1840</v>
+        <v>3680</v>
       </c>
       <c r="D25" s="1">
-        <v>1840</v>
+        <v>3680</v>
       </c>
       <c r="E25" s="1">
-        <v>1840</v>
+        <v>3680</v>
       </c>
       <c r="F25" s="3">
         <v>27850</v>
@@ -15674,16 +15746,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="C26" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="D26" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="E26" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="F26" s="3">
         <v>38030</v>
@@ -15694,16 +15766,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F27" s="3">
         <v>42460</v>
@@ -15714,16 +15786,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="C28" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="D28" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="E28" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="F28" s="3">
         <v>47770</v>
@@ -15734,16 +15806,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="C29" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="D29" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="E29" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="F29" s="3">
         <v>52780</v>
@@ -15754,16 +15826,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="C30" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="D30" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="E30" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="F30" s="3">
         <v>75130</v>
@@ -15774,16 +15846,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="C31" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="D31" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="E31" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="F31" s="3">
         <v>86730</v>
@@ -15794,16 +15866,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="C32" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="D32" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="E32" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="F32" s="3">
         <v>100170</v>
@@ -15814,16 +15886,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="C33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="E33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F33" s="3">
         <v>113650</v>
@@ -15834,16 +15906,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="C34" s="1">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="D34" s="1">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="E34" s="1">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="F34" s="3">
         <v>155560</v>
@@ -15854,16 +15926,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="C35" s="1">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="D35" s="1">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="E35" s="1">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="F35" s="3">
         <v>174800</v>
@@ -15874,16 +15946,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="C36" s="1">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="D36" s="1">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="E36" s="1">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="F36" s="3">
         <v>196900</v>
@@ -15894,16 +15966,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="C37" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="D37" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="E37" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="F37" s="3">
         <v>219150</v>
@@ -15914,16 +15986,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="C38" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="D38" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="E38" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="F38" s="3">
         <v>294720</v>
@@ -15934,16 +16006,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>8800</v>
+        <v>17600</v>
       </c>
       <c r="C39" s="1">
-        <v>8800</v>
+        <v>17600</v>
       </c>
       <c r="D39" s="1">
-        <v>8800</v>
+        <v>17600</v>
       </c>
       <c r="E39" s="1">
-        <v>8800</v>
+        <v>17600</v>
       </c>
       <c r="F39" s="3">
         <v>326020</v>
@@ -15954,16 +16026,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F40" s="1">
         <v>361440</v>
@@ -15974,16 +16046,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="C41" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="D41" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="E41" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="F41" s="1">
         <v>397570</v>

--- a/Dragonfall/gameData/shared/BuildingFunction.xlsx
+++ b/Dragonfall/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="5"/>
+    <workbookView xWindow="880" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -499,7 +499,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="752">
+  <cellStyleXfs count="758">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -514,6 +514,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1281,7 +1287,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="752">
+  <cellStyles count="758">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1660,6 +1666,9 @@
     <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2031,6 +2040,9 @@
     <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -11392,8 +11404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11423,7 +11435,7 @@
         <v>124</v>
       </c>
       <c r="C2" s="6">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6">
         <v>30</v>
@@ -11437,7 +11449,7 @@
         <v>229</v>
       </c>
       <c r="C3" s="6">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6">
         <v>40</v>
@@ -11451,7 +11463,7 @@
         <v>306</v>
       </c>
       <c r="C4" s="6">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6">
         <v>50</v>
@@ -11465,7 +11477,7 @@
         <v>367</v>
       </c>
       <c r="C5" s="6">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6">
         <v>60</v>
@@ -11479,7 +11491,7 @@
         <v>417</v>
       </c>
       <c r="C6" s="6">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6">
         <v>70</v>
@@ -11493,7 +11505,7 @@
         <v>457</v>
       </c>
       <c r="C7" s="6">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6">
         <v>90</v>
@@ -11507,7 +11519,7 @@
         <v>490</v>
       </c>
       <c r="C8" s="6">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6">
         <v>130</v>
@@ -11521,7 +11533,7 @@
         <v>519</v>
       </c>
       <c r="C9" s="6">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6">
         <v>240</v>
@@ -11535,7 +11547,7 @@
         <v>542</v>
       </c>
       <c r="C10" s="6">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6">
         <v>520</v>
@@ -11549,7 +11561,7 @@
         <v>562</v>
       </c>
       <c r="C11" s="6">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6">
         <v>770</v>
@@ -11563,7 +11575,7 @@
         <v>1054</v>
       </c>
       <c r="C12" s="6">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="D12" s="6">
         <v>1070</v>
@@ -11577,7 +11589,7 @@
         <v>1190</v>
       </c>
       <c r="C13" s="6">
-        <v>298</v>
+        <v>59</v>
       </c>
       <c r="D13" s="6">
         <v>1350</v>
@@ -11591,7 +11603,7 @@
         <v>1310</v>
       </c>
       <c r="C14" s="6">
-        <v>328</v>
+        <v>65</v>
       </c>
       <c r="D14" s="6">
         <v>1780</v>
@@ -11605,7 +11617,7 @@
         <v>1417</v>
       </c>
       <c r="C15" s="6">
-        <v>354</v>
+        <v>70</v>
       </c>
       <c r="D15" s="6">
         <v>3600</v>
@@ -11619,7 +11631,7 @@
         <v>1512</v>
       </c>
       <c r="C16" s="6">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="D16" s="6">
         <v>5620</v>
@@ -11633,7 +11645,7 @@
         <v>1598</v>
       </c>
       <c r="C17" s="6">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="D17" s="6">
         <v>7770</v>
@@ -11647,7 +11659,7 @@
         <v>1675</v>
       </c>
       <c r="C18" s="6">
-        <v>419</v>
+        <v>83</v>
       </c>
       <c r="D18" s="6">
         <v>11360</v>
@@ -11661,7 +11673,7 @@
         <v>1745</v>
       </c>
       <c r="C19" s="6">
-        <v>436</v>
+        <v>87</v>
       </c>
       <c r="D19" s="6">
         <v>13980</v>
@@ -11675,7 +11687,7 @@
         <v>1809</v>
       </c>
       <c r="C20" s="6">
-        <v>452</v>
+        <v>90</v>
       </c>
       <c r="D20" s="6">
         <v>17080</v>
@@ -11689,7 +11701,7 @@
         <v>1867</v>
       </c>
       <c r="C21" s="6">
-        <v>467</v>
+        <v>93</v>
       </c>
       <c r="D21" s="6">
         <v>20030</v>
@@ -11703,7 +11715,7 @@
         <v>3846</v>
       </c>
       <c r="C22" s="6">
-        <v>961</v>
+        <v>192</v>
       </c>
       <c r="D22" s="6">
         <v>27210</v>
@@ -11717,7 +11729,7 @@
         <v>4500</v>
       </c>
       <c r="C23" s="6">
-        <v>1125</v>
+        <v>225</v>
       </c>
       <c r="D23" s="6">
         <v>31190</v>
@@ -11731,7 +11743,7 @@
         <v>5157</v>
       </c>
       <c r="C24" s="6">
-        <v>1289</v>
+        <v>257</v>
       </c>
       <c r="D24" s="6">
         <v>36000</v>
@@ -11745,7 +11757,7 @@
         <v>5813</v>
       </c>
       <c r="C25" s="6">
-        <v>1453</v>
+        <v>290</v>
       </c>
       <c r="D25" s="6">
         <v>40510</v>
@@ -11759,7 +11771,7 @@
         <v>6465</v>
       </c>
       <c r="C26" s="6">
-        <v>1616</v>
+        <v>323</v>
       </c>
       <c r="D26" s="6">
         <v>55330</v>
@@ -11773,7 +11785,7 @@
         <v>7111</v>
       </c>
       <c r="C27" s="6">
-        <v>1778</v>
+        <v>355</v>
       </c>
       <c r="D27" s="6">
         <v>61770</v>
@@ -11787,7 +11799,7 @@
         <v>7749</v>
       </c>
       <c r="C28" s="6">
-        <v>1937</v>
+        <v>387</v>
       </c>
       <c r="D28" s="6">
         <v>69490</v>
@@ -11801,7 +11813,7 @@
         <v>8377</v>
       </c>
       <c r="C29" s="6">
-        <v>2094</v>
+        <v>418</v>
       </c>
       <c r="D29" s="6">
         <v>76790</v>
@@ -11815,7 +11827,7 @@
         <v>8994</v>
       </c>
       <c r="C30" s="6">
-        <v>2249</v>
+        <v>449</v>
       </c>
       <c r="D30" s="6">
         <v>109290</v>
@@ -11829,7 +11841,7 @@
         <v>9600</v>
       </c>
       <c r="C31" s="6">
-        <v>2400</v>
+        <v>480</v>
       </c>
       <c r="D31" s="6">
         <v>126160</v>
@@ -11843,7 +11855,7 @@
         <v>15077</v>
       </c>
       <c r="C32" s="6">
-        <v>3769</v>
+        <v>753</v>
       </c>
       <c r="D32" s="6">
         <v>145710</v>
@@ -11857,7 +11869,7 @@
         <v>16980</v>
       </c>
       <c r="C33" s="6">
-        <v>4245</v>
+        <v>849</v>
       </c>
       <c r="D33" s="6">
         <v>165320</v>
@@ -11871,7 +11883,7 @@
         <v>18899</v>
       </c>
       <c r="C34" s="6">
-        <v>4725</v>
+        <v>945</v>
       </c>
       <c r="D34" s="6">
         <v>226290</v>
@@ -11885,7 +11897,7 @@
         <v>20826</v>
       </c>
       <c r="C35" s="6">
-        <v>5207</v>
+        <v>1041</v>
       </c>
       <c r="D35" s="6">
         <v>254270</v>
@@ -11899,7 +11911,7 @@
         <v>22756</v>
       </c>
       <c r="C36" s="6">
-        <v>5689</v>
+        <v>1137</v>
       </c>
       <c r="D36" s="6">
         <v>286410</v>
@@ -11913,7 +11925,7 @@
         <v>24681</v>
       </c>
       <c r="C37" s="6">
-        <v>6170</v>
+        <v>1234</v>
       </c>
       <c r="D37" s="6">
         <v>318780</v>
@@ -11927,7 +11939,7 @@
         <v>26597</v>
       </c>
       <c r="C38" s="6">
-        <v>6649</v>
+        <v>1329</v>
       </c>
       <c r="D38" s="6">
         <v>428690</v>
@@ -11941,7 +11953,7 @@
         <v>28500</v>
       </c>
       <c r="C39" s="6">
-        <v>7125</v>
+        <v>1425</v>
       </c>
       <c r="D39" s="6">
         <v>474230</v>
@@ -11955,7 +11967,7 @@
         <v>30387</v>
       </c>
       <c r="C40" s="6">
-        <v>7597</v>
+        <v>1519</v>
       </c>
       <c r="D40" s="6">
         <v>525750</v>
@@ -11969,7 +11981,7 @@
         <v>32256</v>
       </c>
       <c r="C41" s="1">
-        <v>8064</v>
+        <v>1612</v>
       </c>
       <c r="D41" s="1">
         <v>578300</v>
@@ -13804,7 +13816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/Dragonfall/gameData/shared/BuildingFunction.xlsx
+++ b/Dragonfall/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="1620" yWindow="640" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -319,8 +319,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0\%"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1263,7 +1264,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1286,6 +1287,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="758">
     <cellStyle name="Default 1" xfId="1"/>
@@ -1293,8 +1300,385 @@
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
@@ -1669,383 +2053,6 @@
     <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
-    <cellStyle name="解释性文本" xfId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -11404,8 +11411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12848,8 +12855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12887,20 +12894,20 @@
       <c r="B2" s="6">
         <v>25</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>11</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>11</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="8">
         <v>11</v>
       </c>
       <c r="G2" s="5">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -12910,20 +12917,20 @@
       <c r="B3" s="6">
         <v>30</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>12</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <v>12</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>12</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>12</v>
       </c>
       <c r="G3" s="6">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -12933,20 +12940,20 @@
       <c r="B4" s="6">
         <v>35</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>13</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="9">
         <v>13</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <v>13</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <v>13</v>
       </c>
       <c r="G4" s="6">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -12956,20 +12963,20 @@
       <c r="B5" s="6">
         <v>40</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>14</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>14</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <v>14</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>14</v>
       </c>
-      <c r="G5" s="6">
-        <v>56</v>
+      <c r="G5" s="5">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -12979,20 +12986,20 @@
       <c r="B6" s="6">
         <v>50</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>15</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="9">
         <v>15</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="9">
         <v>15</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="9">
         <v>15</v>
       </c>
       <c r="G6" s="6">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -13002,20 +13009,20 @@
       <c r="B7" s="6">
         <v>60</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>16</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>16</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <v>16</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="9">
         <v>16</v>
       </c>
       <c r="G7" s="6">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -13025,20 +13032,20 @@
       <c r="B8" s="6">
         <v>80</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>17</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>17</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <v>17</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="9">
         <v>17</v>
       </c>
-      <c r="G8" s="6">
-        <v>68</v>
+      <c r="G8" s="5">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -13048,20 +13055,20 @@
       <c r="B9" s="6">
         <v>130</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>18</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="9">
         <v>18</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="9">
         <v>18</v>
       </c>
       <c r="G9" s="6">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -13071,20 +13078,20 @@
       <c r="B10" s="6">
         <v>270</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>19</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="9">
         <v>19</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="9">
         <v>19</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="9">
         <v>19</v>
       </c>
       <c r="G10" s="6">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -13094,20 +13101,20 @@
       <c r="B11" s="6">
         <v>400</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>20</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="9">
         <v>20</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>20</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="9">
         <v>20</v>
       </c>
-      <c r="G11" s="6">
-        <v>80</v>
+      <c r="G11" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -13117,20 +13124,20 @@
       <c r="B12" s="6">
         <v>550</v>
       </c>
-      <c r="C12" s="6">
-        <v>21</v>
-      </c>
-      <c r="D12" s="6">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6">
-        <v>21</v>
-      </c>
-      <c r="F12" s="6">
-        <v>21</v>
+      <c r="C12" s="9">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9">
+        <v>22</v>
+      </c>
+      <c r="E12" s="9">
+        <v>22</v>
+      </c>
+      <c r="F12" s="9">
+        <v>22</v>
       </c>
       <c r="G12" s="6">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -13140,20 +13147,20 @@
       <c r="B13" s="6">
         <v>690</v>
       </c>
-      <c r="C13" s="6">
-        <v>22</v>
-      </c>
-      <c r="D13" s="6">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6">
-        <v>22</v>
-      </c>
-      <c r="F13" s="6">
-        <v>22</v>
+      <c r="C13" s="9">
+        <v>24</v>
+      </c>
+      <c r="D13" s="9">
+        <v>24</v>
+      </c>
+      <c r="E13" s="9">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9">
+        <v>24</v>
       </c>
       <c r="G13" s="6">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -13163,20 +13170,20 @@
       <c r="B14" s="6">
         <v>900</v>
       </c>
-      <c r="C14" s="6">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6">
-        <v>23</v>
-      </c>
-      <c r="E14" s="6">
-        <v>23</v>
-      </c>
-      <c r="F14" s="6">
-        <v>23</v>
-      </c>
-      <c r="G14" s="6">
-        <v>92</v>
+      <c r="C14" s="9">
+        <v>26</v>
+      </c>
+      <c r="D14" s="9">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9">
+        <v>26</v>
+      </c>
+      <c r="G14" s="5">
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -13186,20 +13193,20 @@
       <c r="B15" s="6">
         <v>1810</v>
       </c>
-      <c r="C15" s="6">
-        <v>24</v>
-      </c>
-      <c r="D15" s="6">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6">
-        <v>24</v>
-      </c>
-      <c r="F15" s="6">
-        <v>24</v>
+      <c r="C15" s="9">
+        <v>28</v>
+      </c>
+      <c r="D15" s="9">
+        <v>28</v>
+      </c>
+      <c r="E15" s="9">
+        <v>28</v>
+      </c>
+      <c r="F15" s="9">
+        <v>28</v>
       </c>
       <c r="G15" s="6">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -13209,20 +13216,20 @@
       <c r="B16" s="6">
         <v>2820</v>
       </c>
-      <c r="C16" s="6">
-        <v>25</v>
-      </c>
-      <c r="D16" s="6">
-        <v>25</v>
-      </c>
-      <c r="E16" s="6">
-        <v>25</v>
-      </c>
-      <c r="F16" s="6">
-        <v>25</v>
+      <c r="C16" s="9">
+        <v>30</v>
+      </c>
+      <c r="D16" s="9">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9">
+        <v>30</v>
+      </c>
+      <c r="F16" s="9">
+        <v>30</v>
       </c>
       <c r="G16" s="6">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
@@ -13232,20 +13239,20 @@
       <c r="B17" s="6">
         <v>3900</v>
       </c>
-      <c r="C17" s="6">
-        <v>26</v>
-      </c>
-      <c r="D17" s="6">
-        <v>26</v>
-      </c>
-      <c r="E17" s="6">
-        <v>26</v>
-      </c>
-      <c r="F17" s="6">
-        <v>26</v>
-      </c>
-      <c r="G17" s="6">
-        <v>104</v>
+      <c r="C17" s="9">
+        <v>32</v>
+      </c>
+      <c r="D17" s="9">
+        <v>32</v>
+      </c>
+      <c r="E17" s="9">
+        <v>32</v>
+      </c>
+      <c r="F17" s="9">
+        <v>32</v>
+      </c>
+      <c r="G17" s="5">
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
@@ -13255,20 +13262,20 @@
       <c r="B18" s="6">
         <v>5690</v>
       </c>
-      <c r="C18" s="6">
-        <v>27</v>
-      </c>
-      <c r="D18" s="6">
-        <v>27</v>
-      </c>
-      <c r="E18" s="6">
-        <v>27</v>
-      </c>
-      <c r="F18" s="6">
-        <v>27</v>
+      <c r="C18" s="9">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9">
+        <v>34</v>
+      </c>
+      <c r="F18" s="9">
+        <v>34</v>
       </c>
       <c r="G18" s="6">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
@@ -13278,20 +13285,20 @@
       <c r="B19" s="6">
         <v>7000</v>
       </c>
-      <c r="C19" s="6">
-        <v>28</v>
-      </c>
-      <c r="D19" s="6">
-        <v>28</v>
-      </c>
-      <c r="E19" s="6">
-        <v>28</v>
-      </c>
-      <c r="F19" s="6">
-        <v>28</v>
+      <c r="C19" s="9">
+        <v>36</v>
+      </c>
+      <c r="D19" s="9">
+        <v>36</v>
+      </c>
+      <c r="E19" s="9">
+        <v>36</v>
+      </c>
+      <c r="F19" s="9">
+        <v>36</v>
       </c>
       <c r="G19" s="6">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
@@ -13301,20 +13308,20 @@
       <c r="B20" s="6">
         <v>8550</v>
       </c>
-      <c r="C20" s="6">
-        <v>29</v>
-      </c>
-      <c r="D20" s="6">
-        <v>29</v>
-      </c>
-      <c r="E20" s="6">
-        <v>29</v>
-      </c>
-      <c r="F20" s="6">
-        <v>29</v>
-      </c>
-      <c r="G20" s="6">
-        <v>116</v>
+      <c r="C20" s="9">
+        <v>38</v>
+      </c>
+      <c r="D20" s="9">
+        <v>38</v>
+      </c>
+      <c r="E20" s="9">
+        <v>38</v>
+      </c>
+      <c r="F20" s="9">
+        <v>38</v>
+      </c>
+      <c r="G20" s="5">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
@@ -13324,20 +13331,20 @@
       <c r="B21" s="6">
         <v>10030</v>
       </c>
-      <c r="C21" s="6">
-        <v>30</v>
-      </c>
-      <c r="D21" s="6">
-        <v>30</v>
-      </c>
-      <c r="E21" s="6">
-        <v>30</v>
-      </c>
-      <c r="F21" s="6">
-        <v>30</v>
+      <c r="C21" s="9">
+        <v>40</v>
+      </c>
+      <c r="D21" s="9">
+        <v>40</v>
+      </c>
+      <c r="E21" s="9">
+        <v>40</v>
+      </c>
+      <c r="F21" s="9">
+        <v>40</v>
       </c>
       <c r="G21" s="6">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
@@ -13347,20 +13354,20 @@
       <c r="B22" s="6">
         <v>13620</v>
       </c>
-      <c r="C22" s="6">
-        <v>31</v>
-      </c>
-      <c r="D22" s="6">
-        <v>31</v>
-      </c>
-      <c r="E22" s="6">
-        <v>31</v>
-      </c>
-      <c r="F22" s="6">
-        <v>31</v>
+      <c r="C22" s="9">
+        <v>42</v>
+      </c>
+      <c r="D22" s="9">
+        <v>42</v>
+      </c>
+      <c r="E22" s="9">
+        <v>42</v>
+      </c>
+      <c r="F22" s="9">
+        <v>42</v>
       </c>
       <c r="G22" s="6">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
@@ -13370,20 +13377,20 @@
       <c r="B23" s="6">
         <v>15610</v>
       </c>
-      <c r="C23" s="6">
-        <v>32</v>
-      </c>
-      <c r="D23" s="6">
-        <v>32</v>
-      </c>
-      <c r="E23" s="6">
-        <v>32</v>
-      </c>
-      <c r="F23" s="6">
-        <v>32</v>
-      </c>
-      <c r="G23" s="6">
-        <v>128</v>
+      <c r="C23" s="9">
+        <v>44</v>
+      </c>
+      <c r="D23" s="9">
+        <v>44</v>
+      </c>
+      <c r="E23" s="9">
+        <v>44</v>
+      </c>
+      <c r="F23" s="9">
+        <v>44</v>
+      </c>
+      <c r="G23" s="5">
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
@@ -13393,20 +13400,20 @@
       <c r="B24" s="6">
         <v>18010</v>
       </c>
-      <c r="C24" s="6">
-        <v>33</v>
-      </c>
-      <c r="D24" s="6">
-        <v>33</v>
-      </c>
-      <c r="E24" s="6">
-        <v>33</v>
-      </c>
-      <c r="F24" s="6">
-        <v>33</v>
+      <c r="C24" s="9">
+        <v>46</v>
+      </c>
+      <c r="D24" s="9">
+        <v>46</v>
+      </c>
+      <c r="E24" s="9">
+        <v>46</v>
+      </c>
+      <c r="F24" s="9">
+        <v>46</v>
       </c>
       <c r="G24" s="6">
-        <v>132</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
@@ -13416,20 +13423,20 @@
       <c r="B25" s="6">
         <v>20270</v>
       </c>
-      <c r="C25" s="6">
-        <v>34</v>
-      </c>
-      <c r="D25" s="6">
-        <v>34</v>
-      </c>
-      <c r="E25" s="6">
-        <v>34</v>
-      </c>
-      <c r="F25" s="6">
-        <v>34</v>
+      <c r="C25" s="9">
+        <v>48</v>
+      </c>
+      <c r="D25" s="9">
+        <v>48</v>
+      </c>
+      <c r="E25" s="9">
+        <v>48</v>
+      </c>
+      <c r="F25" s="9">
+        <v>48</v>
       </c>
       <c r="G25" s="6">
-        <v>136</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
@@ -13439,20 +13446,20 @@
       <c r="B26" s="6">
         <v>27680</v>
       </c>
-      <c r="C26" s="6">
-        <v>35</v>
-      </c>
-      <c r="D26" s="6">
-        <v>35</v>
-      </c>
-      <c r="E26" s="6">
-        <v>35</v>
-      </c>
-      <c r="F26" s="6">
-        <v>35</v>
-      </c>
-      <c r="G26" s="6">
-        <v>140</v>
+      <c r="C26" s="9">
+        <v>50</v>
+      </c>
+      <c r="D26" s="9">
+        <v>50</v>
+      </c>
+      <c r="E26" s="9">
+        <v>50</v>
+      </c>
+      <c r="F26" s="9">
+        <v>50</v>
+      </c>
+      <c r="G26" s="5">
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
@@ -13462,20 +13469,20 @@
       <c r="B27" s="6">
         <v>30900</v>
       </c>
-      <c r="C27" s="6">
-        <v>36</v>
-      </c>
-      <c r="D27" s="6">
-        <v>36</v>
-      </c>
-      <c r="E27" s="6">
-        <v>36</v>
-      </c>
-      <c r="F27" s="6">
-        <v>36</v>
+      <c r="C27" s="9">
+        <v>52</v>
+      </c>
+      <c r="D27" s="9">
+        <v>52</v>
+      </c>
+      <c r="E27" s="9">
+        <v>52</v>
+      </c>
+      <c r="F27" s="9">
+        <v>52</v>
       </c>
       <c r="G27" s="6">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
@@ -13485,20 +13492,20 @@
       <c r="B28" s="6">
         <v>34760</v>
       </c>
-      <c r="C28" s="6">
-        <v>37</v>
-      </c>
-      <c r="D28" s="6">
-        <v>37</v>
-      </c>
-      <c r="E28" s="6">
-        <v>37</v>
-      </c>
-      <c r="F28" s="6">
-        <v>37</v>
+      <c r="C28" s="9">
+        <v>54</v>
+      </c>
+      <c r="D28" s="9">
+        <v>54</v>
+      </c>
+      <c r="E28" s="9">
+        <v>54</v>
+      </c>
+      <c r="F28" s="9">
+        <v>54</v>
       </c>
       <c r="G28" s="6">
-        <v>148</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
@@ -13508,20 +13515,20 @@
       <c r="B29" s="6">
         <v>38410</v>
       </c>
-      <c r="C29" s="6">
-        <v>38</v>
-      </c>
-      <c r="D29" s="6">
-        <v>38</v>
-      </c>
-      <c r="E29" s="6">
-        <v>38</v>
-      </c>
-      <c r="F29" s="6">
-        <v>38</v>
-      </c>
-      <c r="G29" s="6">
-        <v>152</v>
+      <c r="C29" s="9">
+        <v>60</v>
+      </c>
+      <c r="D29" s="9">
+        <v>60</v>
+      </c>
+      <c r="E29" s="9">
+        <v>60</v>
+      </c>
+      <c r="F29" s="9">
+        <v>60</v>
+      </c>
+      <c r="G29" s="5">
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
@@ -13531,20 +13538,20 @@
       <c r="B30" s="6">
         <v>54660</v>
       </c>
-      <c r="C30" s="6">
-        <v>39</v>
-      </c>
-      <c r="D30" s="6">
-        <v>39</v>
-      </c>
-      <c r="E30" s="6">
-        <v>39</v>
-      </c>
-      <c r="F30" s="6">
-        <v>39</v>
+      <c r="C30" s="9">
+        <v>65</v>
+      </c>
+      <c r="D30" s="9">
+        <v>65</v>
+      </c>
+      <c r="E30" s="9">
+        <v>65</v>
+      </c>
+      <c r="F30" s="9">
+        <v>65</v>
       </c>
       <c r="G30" s="6">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
@@ -13554,20 +13561,20 @@
       <c r="B31" s="6">
         <v>63090</v>
       </c>
-      <c r="C31" s="6">
-        <v>40</v>
-      </c>
-      <c r="D31" s="6">
-        <v>40</v>
-      </c>
-      <c r="E31" s="6">
-        <v>40</v>
-      </c>
-      <c r="F31" s="6">
-        <v>40</v>
+      <c r="C31" s="9">
+        <v>70</v>
+      </c>
+      <c r="D31" s="9">
+        <v>70</v>
+      </c>
+      <c r="E31" s="9">
+        <v>70</v>
+      </c>
+      <c r="F31" s="9">
+        <v>70</v>
       </c>
       <c r="G31" s="6">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
@@ -13577,20 +13584,20 @@
       <c r="B32" s="6">
         <v>72870</v>
       </c>
-      <c r="C32" s="6">
-        <v>41</v>
-      </c>
-      <c r="D32" s="6">
-        <v>41</v>
-      </c>
-      <c r="E32" s="6">
-        <v>41</v>
-      </c>
-      <c r="F32" s="6">
-        <v>41</v>
-      </c>
-      <c r="G32" s="6">
-        <v>164</v>
+      <c r="C32" s="9">
+        <v>75</v>
+      </c>
+      <c r="D32" s="9">
+        <v>75</v>
+      </c>
+      <c r="E32" s="9">
+        <v>75</v>
+      </c>
+      <c r="F32" s="9">
+        <v>75</v>
+      </c>
+      <c r="G32" s="5">
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
@@ -13600,20 +13607,20 @@
       <c r="B33" s="6">
         <v>82670</v>
       </c>
-      <c r="C33" s="6">
-        <v>42</v>
-      </c>
-      <c r="D33" s="6">
-        <v>42</v>
-      </c>
-      <c r="E33" s="6">
-        <v>42</v>
-      </c>
-      <c r="F33" s="6">
-        <v>42</v>
+      <c r="C33" s="9">
+        <v>80</v>
+      </c>
+      <c r="D33" s="9">
+        <v>80</v>
+      </c>
+      <c r="E33" s="9">
+        <v>80</v>
+      </c>
+      <c r="F33" s="9">
+        <v>80</v>
       </c>
       <c r="G33" s="6">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
@@ -13623,20 +13630,20 @@
       <c r="B34" s="6">
         <v>113160</v>
       </c>
-      <c r="C34" s="6">
-        <v>43</v>
-      </c>
-      <c r="D34" s="6">
-        <v>43</v>
-      </c>
-      <c r="E34" s="6">
-        <v>43</v>
-      </c>
-      <c r="F34" s="6">
-        <v>43</v>
+      <c r="C34" s="9">
+        <v>85</v>
+      </c>
+      <c r="D34" s="9">
+        <v>85</v>
+      </c>
+      <c r="E34" s="9">
+        <v>85</v>
+      </c>
+      <c r="F34" s="9">
+        <v>85</v>
       </c>
       <c r="G34" s="6">
-        <v>172</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
@@ -13646,20 +13653,20 @@
       <c r="B35" s="6">
         <v>127150</v>
       </c>
-      <c r="C35" s="6">
-        <v>44</v>
-      </c>
-      <c r="D35" s="6">
-        <v>44</v>
-      </c>
-      <c r="E35" s="6">
-        <v>44</v>
-      </c>
-      <c r="F35" s="6">
-        <v>44</v>
-      </c>
-      <c r="G35" s="6">
-        <v>176</v>
+      <c r="C35" s="9">
+        <v>90</v>
+      </c>
+      <c r="D35" s="9">
+        <v>90</v>
+      </c>
+      <c r="E35" s="9">
+        <v>90</v>
+      </c>
+      <c r="F35" s="9">
+        <v>90</v>
+      </c>
+      <c r="G35" s="5">
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
@@ -13669,20 +13676,20 @@
       <c r="B36" s="6">
         <v>143220</v>
       </c>
-      <c r="C36" s="6">
-        <v>45</v>
-      </c>
-      <c r="D36" s="6">
-        <v>45</v>
-      </c>
-      <c r="E36" s="6">
-        <v>45</v>
-      </c>
-      <c r="F36" s="6">
-        <v>45</v>
+      <c r="C36" s="9">
+        <v>95</v>
+      </c>
+      <c r="D36" s="9">
+        <v>95</v>
+      </c>
+      <c r="E36" s="9">
+        <v>95</v>
+      </c>
+      <c r="F36" s="9">
+        <v>95</v>
       </c>
       <c r="G36" s="6">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
@@ -13692,20 +13699,20 @@
       <c r="B37" s="6">
         <v>159400</v>
       </c>
-      <c r="C37" s="6">
-        <v>46</v>
-      </c>
-      <c r="D37" s="6">
-        <v>46</v>
-      </c>
-      <c r="E37" s="6">
-        <v>46</v>
-      </c>
-      <c r="F37" s="6">
-        <v>46</v>
+      <c r="C37" s="9">
+        <v>100</v>
+      </c>
+      <c r="D37" s="9">
+        <v>100</v>
+      </c>
+      <c r="E37" s="9">
+        <v>100</v>
+      </c>
+      <c r="F37" s="9">
+        <v>100</v>
       </c>
       <c r="G37" s="6">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
@@ -13715,20 +13722,20 @@
       <c r="B38" s="6">
         <v>214360</v>
       </c>
-      <c r="C38" s="6">
-        <v>47</v>
-      </c>
-      <c r="D38" s="6">
-        <v>47</v>
-      </c>
-      <c r="E38" s="6">
-        <v>47</v>
-      </c>
-      <c r="F38" s="6">
-        <v>47</v>
-      </c>
-      <c r="G38" s="6">
-        <v>188</v>
+      <c r="C38" s="9">
+        <v>105</v>
+      </c>
+      <c r="D38" s="9">
+        <v>105</v>
+      </c>
+      <c r="E38" s="9">
+        <v>105</v>
+      </c>
+      <c r="F38" s="9">
+        <v>105</v>
+      </c>
+      <c r="G38" s="5">
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
@@ -13738,20 +13745,20 @@
       <c r="B39" s="6">
         <v>237130</v>
       </c>
-      <c r="C39" s="6">
-        <v>48</v>
-      </c>
-      <c r="D39" s="6">
-        <v>48</v>
-      </c>
-      <c r="E39" s="6">
-        <v>48</v>
-      </c>
-      <c r="F39" s="6">
-        <v>48</v>
+      <c r="C39" s="9">
+        <v>110</v>
+      </c>
+      <c r="D39" s="9">
+        <v>110</v>
+      </c>
+      <c r="E39" s="9">
+        <v>110</v>
+      </c>
+      <c r="F39" s="9">
+        <v>110</v>
       </c>
       <c r="G39" s="6">
-        <v>192</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
@@ -13761,20 +13768,20 @@
       <c r="B40" s="6">
         <v>262890</v>
       </c>
-      <c r="C40" s="6">
-        <v>49</v>
-      </c>
-      <c r="D40" s="6">
-        <v>49</v>
-      </c>
-      <c r="E40" s="6">
-        <v>49</v>
-      </c>
-      <c r="F40" s="6">
-        <v>49</v>
+      <c r="C40" s="9">
+        <v>115</v>
+      </c>
+      <c r="D40" s="9">
+        <v>115</v>
+      </c>
+      <c r="E40" s="9">
+        <v>115</v>
+      </c>
+      <c r="F40" s="9">
+        <v>115</v>
       </c>
       <c r="G40" s="6">
-        <v>196</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
@@ -13784,20 +13791,20 @@
       <c r="B41" s="1">
         <v>289160</v>
       </c>
-      <c r="C41" s="6">
-        <v>50</v>
-      </c>
-      <c r="D41" s="6">
-        <v>50</v>
-      </c>
-      <c r="E41" s="6">
-        <v>50</v>
-      </c>
-      <c r="F41" s="6">
-        <v>50</v>
-      </c>
-      <c r="G41" s="6">
-        <v>200</v>
+      <c r="C41" s="9">
+        <v>120</v>
+      </c>
+      <c r="D41" s="9">
+        <v>120</v>
+      </c>
+      <c r="E41" s="9">
+        <v>120</v>
+      </c>
+      <c r="F41" s="9">
+        <v>120</v>
+      </c>
+      <c r="G41" s="5">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
